--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,16 +334,16 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>61044.07707888939</v>
+        <v>32139.60278091401</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>40634.27972392394</v>
+        <v>35990.73001506319</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>51066.95077695788</v>
+        <v>22800.42819107365</v>
       </c>
       <c r="E4" t="s">
         <v>108</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>86928.84048787894</v>
+        <v>63728.28266754546</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>60444.91194455346</v>
+        <v>36063.38800971417</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>55484.11746772067</v>
+        <v>46763.81123250063</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>63216.64924219629</v>
+        <v>40203.04848143394</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>49236.56187196048</v>
+        <v>58855.02451184677</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>55635.10226122323</v>
+        <v>59647.14674427636</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>37959.40605765031</v>
+        <v>69047.97946305729</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>64484.49043141912</v>
+        <v>46086.36669326781</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>46201.40944775682</v>
+        <v>51335.61615303143</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>36617.24139973229</v>
+        <v>79904.70891449388</v>
       </c>
       <c r="E14" t="s">
         <v>107</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>71236.09496212541</v>
+        <v>52953.00770548005</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>46446.86551866599</v>
+        <v>43275.55689894089</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>55680.56332716463</v>
+        <v>40182.97626343984</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>54615.0880380036</v>
+        <v>51848.57446983197</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>32258.49469930761</v>
+        <v>69544.10343831853</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>70743.5896300837</v>
+        <v>55812.12082838754</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>69715.89434686927</v>
+        <v>48090.87417854072</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>31506.30019150038</v>
+        <v>54549.87163715865</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>28342.57270322345</v>
+        <v>74954.10021048508</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,10 +1179,10 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>59925.35670751707</v>
+        <v>37294.86840300513</v>
       </c>
       <c r="E24" t="s">
         <v>107</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>81132.74137804029</v>
+        <v>46247.07900656572</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>12355.44668459028</v>
+        <v>64941.56953448913</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>64240.11985709672</v>
+        <v>52889.58449203395</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>38899.67531460195</v>
+        <v>55560.12719663013</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>81794.28675446555</v>
+        <v>40688.01112124528</v>
       </c>
       <c r="E29" t="s">
         <v>107</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>52586.17931635946</v>
+        <v>30100.59659513829</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>56949.04913633454</v>
+        <v>23496.75979106318</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>29374.09512708759</v>
+        <v>35158.46301227653</v>
       </c>
       <c r="E32" t="s">
         <v>107</v>
@@ -1359,10 +1359,10 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>42197.75745729463</v>
+        <v>33793.31121082504</v>
       </c>
       <c r="E33" t="s">
         <v>108</v>
@@ -1379,10 +1379,10 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>39630.58664073436</v>
+        <v>16952.21560057365</v>
       </c>
       <c r="E34" t="s">
         <v>107</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35">
-        <v>33398.37889493242</v>
+        <v>98905.06888690374</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>30762.13044236073</v>
+        <v>49748.15032239333</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>40608.4502337178</v>
+        <v>40976.80350478983</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>49692.55036903189</v>
+        <v>33283.51223469683</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>84244.60588113491</v>
+        <v>41045.39884713051</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>50038.83665278472</v>
+        <v>73104.45290308558</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>49031.75983168178</v>
+        <v>61545.79633358477</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,10 +1539,10 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>62120.48041891368</v>
+        <v>36013.91337673202</v>
       </c>
       <c r="E42" t="s">
         <v>108</v>
@@ -1559,10 +1559,10 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D43">
-        <v>50008.65609891381</v>
+        <v>83706.23748562479</v>
       </c>
       <c r="E43" t="s">
         <v>107</v>
@@ -1579,10 +1579,10 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>29615.5844680527</v>
+        <v>58032.09971380498</v>
       </c>
       <c r="E44" t="s">
         <v>108</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D45">
-        <v>57686.25270880438</v>
+        <v>30941.420314558</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>38757.72129463623</v>
+        <v>51473.38117242237</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>45290.52915390437</v>
+        <v>25819.50498375345</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1662,10 +1662,10 @@
         <v>57</v>
       </c>
       <c r="D48">
-        <v>63454.47585184692</v>
+        <v>67306.77040796771</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>62503.23372906812</v>
+        <v>60259.47424546765</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>87951.12017421484</v>
+        <v>34602.15615717362</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,10 +1719,10 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>73433.14034913578</v>
+        <v>39494.02156027704</v>
       </c>
       <c r="E51" t="s">
         <v>108</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D52">
-        <v>69298.80883843343</v>
+        <v>43598.33243567114</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>37770.9431980072</v>
+        <v>18021.92488420261</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>84012.98804382549</v>
+        <v>53991.59830737864</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,10 +1799,10 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>52297.67431757488</v>
+        <v>50160.28433716793</v>
       </c>
       <c r="E55" t="s">
         <v>109</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D56">
-        <v>63324.76099580262</v>
+        <v>30787.04075510756</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,10 +1839,10 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>45820.18369325127</v>
+        <v>52483.74945879705</v>
       </c>
       <c r="E57" t="s">
         <v>106</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D58">
-        <v>86396.9845681601</v>
+        <v>63305.94029934143</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1882,10 +1882,10 @@
         <v>63</v>
       </c>
       <c r="D59">
-        <v>62703.458149635</v>
+        <v>52225.40598417564</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D60">
-        <v>39086.17617092407</v>
+        <v>27764.12552206716</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>35191.07622772823</v>
+        <v>42432.35513381135</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,10 +1939,10 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>55757.47401592204</v>
+        <v>79358.77131272586</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>51637.70207154811</v>
+        <v>54825.70048680482</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,10 +1979,10 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>21398.73011058515</v>
+        <v>41861.89777029157</v>
       </c>
       <c r="E64" t="s">
         <v>106</v>
@@ -1999,10 +1999,10 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D65">
-        <v>39326.14876207262</v>
+        <v>59395.34087930775</v>
       </c>
       <c r="E65" t="s">
         <v>109</v>
@@ -2019,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D66">
-        <v>52375.82245395466</v>
+        <v>60354.1561346231</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D67">
-        <v>57240.76543009841</v>
+        <v>40953.46423877791</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D68">
-        <v>56507.86930189406</v>
+        <v>51608.17778127245</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,10 +2079,10 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D69">
-        <v>42219.344790729</v>
+        <v>61791.29432499051</v>
       </c>
       <c r="E69" t="s">
         <v>106</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D70">
-        <v>15174.34833552715</v>
+        <v>48841.17732773533</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>29391.30999169871</v>
+        <v>36104.65148114679</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D72">
-        <v>42687.2320049589</v>
+        <v>56864.25930891788</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>61726.60731706307</v>
+        <v>54510.00508412454</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D74">
-        <v>40205.75270095016</v>
+        <v>45417.9100316053</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>46870.56343426325</v>
+        <v>42890.99327051161</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D76">
-        <v>72300.38947164231</v>
+        <v>49204.22947998535</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D77">
-        <v>38077.24732548714</v>
+        <v>65487.5234836633</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>60931.19125700025</v>
+        <v>25452.37691467219</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D79">
-        <v>17373.53401168842</v>
+        <v>40311.46755663147</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,10 +2299,10 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D80">
-        <v>30986.89380301532</v>
+        <v>58480.89914906339</v>
       </c>
       <c r="E80" t="s">
         <v>109</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>59939.19421524063</v>
+        <v>44116.35731175465</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D82">
-        <v>37077.80275867346</v>
+        <v>69940.18025701992</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,10 +2359,10 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D83">
-        <v>54296.70027201471</v>
+        <v>62845.62942824033</v>
       </c>
       <c r="E83" t="s">
         <v>109</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>46127.17099229702</v>
+        <v>51137.31812521096</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D85">
-        <v>31082.66415243323</v>
+        <v>60571.23813003561</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D86">
-        <v>61313.01215986513</v>
+        <v>46600.75747498697</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2442,10 +2442,10 @@
         <v>19</v>
       </c>
       <c r="D87">
-        <v>33317.49865603259</v>
+        <v>63756.58882750561</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D88">
-        <v>33073.40149801988</v>
+        <v>56806.22320277987</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D89">
-        <v>56702.94293645069</v>
+        <v>40444.93091682631</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>67733.3271619486</v>
+        <v>63442.12563228224</v>
       </c>
       <c r="E90" t="s">
         <v>109</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>72481.84062669372</v>
+        <v>53948.91949602086</v>
       </c>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,10 +2539,10 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D92">
-        <v>35942.25665303844</v>
+        <v>42642.09835507784</v>
       </c>
       <c r="E92" t="s">
         <v>106</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D93">
-        <v>58222.35049560643</v>
+        <v>50029.56649955704</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,10 +2579,10 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D94">
-        <v>31144.81679926358</v>
+        <v>60309.25643602864</v>
       </c>
       <c r="E94" t="s">
         <v>109</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D95">
-        <v>34844.48472050271</v>
+        <v>79942.92515503815</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,10 +2619,10 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D96">
-        <v>42256.06724696216</v>
+        <v>43086.55083190856</v>
       </c>
       <c r="E96" t="s">
         <v>109</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D97">
-        <v>33846.29522619362</v>
+        <v>68427.93451125057</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,10 +2659,10 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D98">
-        <v>37097.63335538421</v>
+        <v>65374.92189579491</v>
       </c>
       <c r="E98" t="s">
         <v>108</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D99">
-        <v>35160.99956133945</v>
+        <v>57058.94078715424</v>
       </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D100">
-        <v>44676.47254282996</v>
+        <v>48976.91697174059</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D101">
-        <v>43249.2250293776</v>
+        <v>67841.79100590128</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,10 +334,10 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Finance</t>
-  </si>
-  <si>
-    <t>IT</t>
   </si>
   <si>
     <t>HR</t>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>32139.60278091401</v>
+        <v>30327.23358099542</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>35990.73001506319</v>
+        <v>61553.54019583587</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>22800.42819107365</v>
+        <v>56359.77347790615</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>63728.28266754546</v>
+        <v>40695.10810419418</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>36063.38800971417</v>
+        <v>49983.89233639465</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>46763.81123250063</v>
+        <v>55475.19312624564</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>40203.04848143394</v>
+        <v>63543.61662274448</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>58855.02451184677</v>
+        <v>73902.92076766942</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>59647.14674427636</v>
+        <v>42568.21254960575</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
@@ -919,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>69047.97946305729</v>
+        <v>22831.88340317882</v>
       </c>
       <c r="E11" t="s">
         <v>108</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>46086.36669326781</v>
+        <v>60428.92225453661</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>51335.61615303143</v>
+        <v>46180.51696837615</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>79904.70891449388</v>
+        <v>39699.5371703157</v>
       </c>
       <c r="E14" t="s">
         <v>107</v>
@@ -999,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>52953.00770548005</v>
+        <v>38074.44072383043</v>
       </c>
       <c r="E15" t="s">
         <v>106</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>43275.55689894089</v>
+        <v>86583.54798885397</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>40182.97626343984</v>
+        <v>36065.95852438847</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>51848.57446983197</v>
+        <v>54075.72589611814</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>69544.10343831853</v>
+        <v>26311.25314309208</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,10 +1099,10 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D20">
-        <v>55812.12082838754</v>
+        <v>61155.41437651523</v>
       </c>
       <c r="E20" t="s">
         <v>107</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>48090.87417854072</v>
+        <v>32246.23757041712</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,10 +1139,10 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>54549.87163715865</v>
+        <v>49493.50987152931</v>
       </c>
       <c r="E22" t="s">
         <v>109</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>74954.10021048508</v>
+        <v>44781.19301851948</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>37294.86840300513</v>
+        <v>50908.43508527168</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>46247.07900656572</v>
+        <v>21835.7541370562</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>64941.56953448913</v>
+        <v>52200.63289724561</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>52889.58449203395</v>
+        <v>48269.3484805244</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>55560.12719663013</v>
+        <v>57053.43355145961</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>40688.01112124528</v>
+        <v>43610.451914418</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,10 +1299,10 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>30100.59659513829</v>
+        <v>47311.29913954909</v>
       </c>
       <c r="E30" t="s">
         <v>109</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>23496.75979106318</v>
+        <v>41418.22132008661</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>35158.46301227653</v>
+        <v>55115.7113211603</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>33793.31121082504</v>
+        <v>46004.70148918301</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>16952.21560057365</v>
+        <v>34917.73353138738</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D35">
-        <v>98905.06888690374</v>
+        <v>50133.66022987464</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,10 +1419,10 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>49748.15032239333</v>
+        <v>50513.34397724751</v>
       </c>
       <c r="E36" t="s">
         <v>107</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>40976.80350478983</v>
+        <v>72430.64386750213</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>33283.51223469683</v>
+        <v>43362.61295988995</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D39">
-        <v>41045.39884713051</v>
+        <v>46864.84746943789</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>73104.45290308558</v>
+        <v>34959.54668427413</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>61545.79633358477</v>
+        <v>41244.6894038903</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>36013.91337673202</v>
+        <v>42944.63758225091</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D43">
-        <v>83706.23748562479</v>
+        <v>64951.15938558849</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>58032.09971380498</v>
+        <v>56203.40510490158</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,10 +1599,10 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>30941.420314558</v>
+        <v>51546.55619812212</v>
       </c>
       <c r="E45" t="s">
         <v>108</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>51473.38117242237</v>
+        <v>47814.50649049409</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>25819.50498375345</v>
+        <v>51770.59866850754</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>67306.77040796771</v>
+        <v>43230.5323404241</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,10 +1679,10 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D49">
-        <v>60259.47424546765</v>
+        <v>70784.38944184447</v>
       </c>
       <c r="E49" t="s">
         <v>106</v>
@@ -1699,10 +1699,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>34602.15615717362</v>
+        <v>31824.79064416224</v>
       </c>
       <c r="E50" t="s">
         <v>108</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D51">
-        <v>39494.02156027704</v>
+        <v>37963.6007883741</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>43598.33243567114</v>
+        <v>92436.56153124296</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,10 +1759,10 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>18021.92488420261</v>
+        <v>54664.76465298066</v>
       </c>
       <c r="E53" t="s">
         <v>108</v>
@@ -1779,10 +1779,10 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>53991.59830737864</v>
+        <v>35757.33245513615</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>50160.28433716793</v>
+        <v>70457.78631418983</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,10 +1819,10 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>30787.04075510756</v>
+        <v>57700.63719208627</v>
       </c>
       <c r="E56" t="s">
         <v>106</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>52483.74945879705</v>
+        <v>66973.54428333613</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D58">
-        <v>63305.94029934143</v>
+        <v>69428.97301059708</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>52225.40598417564</v>
+        <v>53373.29968522006</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>27764.12552206716</v>
+        <v>56267.65445272049</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D61">
-        <v>42432.35513381135</v>
+        <v>64858.5231825755</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1942,10 +1942,10 @@
         <v>51</v>
       </c>
       <c r="D62">
-        <v>79358.77131272586</v>
+        <v>60311.66494724599</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D63">
-        <v>54825.70048680482</v>
+        <v>32143.7036241626</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,10 +1979,10 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>41861.89777029157</v>
+        <v>57184.43621636801</v>
       </c>
       <c r="E64" t="s">
         <v>106</v>
@@ -2002,10 +2002,10 @@
         <v>66</v>
       </c>
       <c r="D65">
-        <v>59395.34087930775</v>
+        <v>33553.52691687807</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>60354.1561346231</v>
+        <v>50860.25657648134</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D67">
-        <v>40953.46423877791</v>
+        <v>39177.40865140728</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>51608.17778127245</v>
+        <v>73008.21598466815</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>61791.29432499051</v>
+        <v>67346.57338933062</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>48841.17732773533</v>
+        <v>30255.84942918507</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D71">
-        <v>36104.65148114679</v>
+        <v>57170.20194591281</v>
       </c>
       <c r="E71" t="s">
         <v>106</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>56864.25930891788</v>
+        <v>52752.42035142128</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,10 +2159,10 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>54510.00508412454</v>
+        <v>34904.0990873704</v>
       </c>
       <c r="E73" t="s">
         <v>109</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D74">
-        <v>45417.9100316053</v>
+        <v>59544.90630080026</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D75">
-        <v>42890.99327051161</v>
+        <v>72951.6673106673</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D76">
-        <v>49204.22947998535</v>
+        <v>61827.99701946213</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>65487.5234836633</v>
+        <v>48662.61042078082</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D78">
-        <v>25452.37691467219</v>
+        <v>65212.75185004638</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D79">
-        <v>40311.46755663147</v>
+        <v>77003.12249518905</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D80">
-        <v>58480.89914906339</v>
+        <v>30278.40893607528</v>
       </c>
       <c r="E80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D81">
-        <v>44116.35731175465</v>
+        <v>57848.43036730588</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,10 +2339,10 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>69940.18025701992</v>
+        <v>47733.5443802447</v>
       </c>
       <c r="E82" t="s">
         <v>109</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D83">
-        <v>62845.62942824033</v>
+        <v>56755.28902930302</v>
       </c>
       <c r="E83" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>51137.31812521096</v>
+        <v>60784.63554589331</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,10 +2399,10 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>60571.23813003561</v>
+        <v>31287.88744400517</v>
       </c>
       <c r="E85" t="s">
         <v>107</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D86">
-        <v>46600.75747498697</v>
+        <v>27999.78547439391</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D87">
-        <v>63756.58882750561</v>
+        <v>31426.1170101784</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D88">
-        <v>56806.22320277987</v>
+        <v>71267.97336265857</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D89">
-        <v>40444.93091682631</v>
+        <v>55138.42777135095</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D90">
-        <v>63442.12563228224</v>
+        <v>67658.88909880417</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,10 +2519,10 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>53948.91949602086</v>
+        <v>13550.25527106035</v>
       </c>
       <c r="E91" t="s">
         <v>108</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D92">
-        <v>42642.09835507784</v>
+        <v>53287.23909719659</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D93">
-        <v>50029.56649955704</v>
+        <v>32573.20244275967</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D94">
-        <v>60309.25643602864</v>
+        <v>58280.57147577435</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D95">
-        <v>79942.92515503815</v>
+        <v>71959.32761543605</v>
       </c>
       <c r="E95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,10 +2619,10 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>43086.55083190856</v>
+        <v>70435.17230530966</v>
       </c>
       <c r="E96" t="s">
         <v>109</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D97">
-        <v>68427.93451125057</v>
+        <v>55263.39388289367</v>
       </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,10 +2659,10 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D98">
-        <v>65374.92189579491</v>
+        <v>60100.93317597036</v>
       </c>
       <c r="E98" t="s">
         <v>108</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D99">
-        <v>57058.94078715424</v>
+        <v>8913.096587130136</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2702,10 +2702,10 @@
         <v>73</v>
       </c>
       <c r="D100">
-        <v>48976.91697174059</v>
+        <v>48106.07951787474</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D101">
-        <v>67841.79100590128</v>
+        <v>34857.75769318041</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -340,10 +340,10 @@
     <t>Finance</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>HR</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>30327.23358099542</v>
+        <v>67979.95953348656</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>61553.54019583587</v>
+        <v>40828.12976840018</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>56359.77347790615</v>
+        <v>33754.17486792504</v>
       </c>
       <c r="E4" t="s">
         <v>106</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>40695.10810419418</v>
+        <v>59461.79794828069</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>49983.89233639465</v>
+        <v>30282.8267460695</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>55475.19312624564</v>
+        <v>-429.8164490719647</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>63543.61662274448</v>
+        <v>20545.27082567008</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>73902.92076766942</v>
+        <v>47475.17077606673</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>42568.21254960575</v>
+        <v>45601.43699104919</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>22831.88340317882</v>
+        <v>28907.63424982308</v>
       </c>
       <c r="E11" t="s">
         <v>108</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>60428.92225453661</v>
+        <v>34426.95023506079</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>46180.51696837615</v>
+        <v>31773.51323254774</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>39699.5371703157</v>
+        <v>24170.7391632043</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>38074.44072383043</v>
+        <v>44540.58877575806</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,10 +1019,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>86583.54798885397</v>
+        <v>65912.62319524803</v>
       </c>
       <c r="E16" t="s">
         <v>106</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>36065.95852438847</v>
+        <v>48968.62762211618</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>54075.72589611814</v>
+        <v>91614.93853108476</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>26311.25314309208</v>
+        <v>37481.06080876756</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20">
-        <v>61155.41437651523</v>
+        <v>41542.33108002172</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>32246.23757041712</v>
+        <v>61314.18221023549</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>49493.50987152931</v>
+        <v>34523.41990515256</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>44781.19301851948</v>
+        <v>38107.78989454511</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>50908.43508527168</v>
+        <v>55919.89595460524</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,10 +1199,10 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>21835.7541370562</v>
+        <v>64257.6664416229</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>52200.63289724561</v>
+        <v>62036.73260729838</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,10 +1239,10 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D27">
-        <v>48269.3484805244</v>
+        <v>72627.44714200342</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>57053.43355145961</v>
+        <v>17188.40923894353</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>43610.451914418</v>
+        <v>44667.52402988356</v>
       </c>
       <c r="E29" t="s">
         <v>106</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>47311.29913954909</v>
+        <v>54421.60036892461</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>41418.22132008661</v>
+        <v>48936.39421446829</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>55115.7113211603</v>
+        <v>64981.61486985759</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>46004.70148918301</v>
+        <v>44419.00997827406</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>34917.73353138738</v>
+        <v>52194.83097108612</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>50133.66022987464</v>
+        <v>66344.66272877694</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D36">
-        <v>50513.34397724751</v>
+        <v>18429.35621639261</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>72430.64386750213</v>
+        <v>60165.82835357722</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>43362.61295988995</v>
+        <v>56943.89517019719</v>
       </c>
       <c r="E38" t="s">
         <v>109</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>46864.84746943789</v>
+        <v>75539.62684778807</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,10 +1499,10 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>34959.54668427413</v>
+        <v>39009.93471108282</v>
       </c>
       <c r="E40" t="s">
         <v>107</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>41244.6894038903</v>
+        <v>73203.81725743369</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>42944.63758225091</v>
+        <v>73344.47921504545</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>64951.15938558849</v>
+        <v>74229.29205443145</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D44">
-        <v>56203.40510490158</v>
+        <v>51577.67653176152</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>51546.55619812212</v>
+        <v>64532.47533691711</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>47814.50649049409</v>
+        <v>58569.81389335859</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>51770.59866850754</v>
+        <v>57928.12573698728</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D48">
-        <v>43230.5323404241</v>
+        <v>48748.64503863614</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>70784.38944184447</v>
+        <v>37598.00401167246</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>31824.79064416224</v>
+        <v>45835.70213241024</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>37963.6007883741</v>
+        <v>42629.61238063469</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D52">
-        <v>92436.56153124296</v>
+        <v>74672.97455191411</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>54664.76465298066</v>
+        <v>36073.42844237869</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1782,7 +1782,7 @@
         <v>50</v>
       </c>
       <c r="D54">
-        <v>35757.33245513615</v>
+        <v>41928.64679789499</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>70457.78631418983</v>
+        <v>49059.6589598358</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D56">
-        <v>57700.63719208627</v>
+        <v>77158.65947400694</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D57">
-        <v>66973.54428333613</v>
+        <v>42220.05036019091</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D58">
-        <v>69428.97301059708</v>
+        <v>56963.36767491284</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,10 +1879,10 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>53373.29968522006</v>
+        <v>46225.13124093303</v>
       </c>
       <c r="E59" t="s">
         <v>107</v>
@@ -1899,10 +1899,10 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>56267.65445272049</v>
+        <v>89354.64221880394</v>
       </c>
       <c r="E60" t="s">
         <v>106</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D61">
-        <v>64858.5231825755</v>
+        <v>79466.19045323633</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,10 +1939,10 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D62">
-        <v>60311.66494724599</v>
+        <v>72216.34697722505</v>
       </c>
       <c r="E62" t="s">
         <v>109</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D63">
-        <v>32143.7036241626</v>
+        <v>61222.30603311075</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>57184.43621636801</v>
+        <v>49623.78841247678</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,10 +1999,10 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>33553.52691687807</v>
+        <v>50759.21971134344</v>
       </c>
       <c r="E65" t="s">
         <v>107</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>50860.25657648134</v>
+        <v>37615.41093466312</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67">
-        <v>39177.40865140728</v>
+        <v>59341.25536237581</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D68">
-        <v>73008.21598466815</v>
+        <v>72410.65837289362</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>67346.57338933062</v>
+        <v>56482.96082610474</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>30255.84942918507</v>
+        <v>57147.29809449907</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D71">
-        <v>57170.20194591281</v>
+        <v>50942.55588084797</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D72">
-        <v>52752.42035142128</v>
+        <v>50128.18298008758</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>34904.0990873704</v>
+        <v>58427.53247633883</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>59544.90630080026</v>
+        <v>36428.44675090557</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2202,10 +2202,10 @@
         <v>62</v>
       </c>
       <c r="D75">
-        <v>72951.6673106673</v>
+        <v>54648.96733104593</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>61827.99701946213</v>
+        <v>52649.50725847053</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,10 +2239,10 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D77">
-        <v>48662.61042078082</v>
+        <v>25527.2542774491</v>
       </c>
       <c r="E77" t="s">
         <v>106</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>65212.75185004638</v>
+        <v>88489.18569951195</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>77003.12249518905</v>
+        <v>37201.61857794393</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D80">
-        <v>30278.40893607528</v>
+        <v>51358.80450722572</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D81">
-        <v>57848.43036730588</v>
+        <v>17521.76914687453</v>
       </c>
       <c r="E81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,10 +2339,10 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D82">
-        <v>47733.5443802447</v>
+        <v>43799.53920455123</v>
       </c>
       <c r="E82" t="s">
         <v>109</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D83">
-        <v>56755.28902930302</v>
+        <v>59344.74493443614</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>60784.63554589331</v>
+        <v>57023.77958201482</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,10 +2399,10 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D85">
-        <v>31287.88744400517</v>
+        <v>31414.09631529187</v>
       </c>
       <c r="E85" t="s">
         <v>107</v>
@@ -2419,10 +2419,10 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D86">
-        <v>27999.78547439391</v>
+        <v>67327.00367698338</v>
       </c>
       <c r="E86" t="s">
         <v>109</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D87">
-        <v>31426.1170101784</v>
+        <v>54800.44839367361</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2462,10 +2462,10 @@
         <v>53</v>
       </c>
       <c r="D88">
-        <v>71267.97336265857</v>
+        <v>49514.40391132789</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D89">
-        <v>55138.42777135095</v>
+        <v>59495.04484993737</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D90">
-        <v>67658.88909880417</v>
+        <v>60008.25027818808</v>
       </c>
       <c r="E90" t="s">
         <v>106</v>
@@ -2519,10 +2519,10 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D91">
-        <v>13550.25527106035</v>
+        <v>43577.15633592531</v>
       </c>
       <c r="E91" t="s">
         <v>108</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D92">
-        <v>53287.23909719659</v>
+        <v>64350.62854937136</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D93">
-        <v>32573.20244275967</v>
+        <v>45165.46564699291</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D94">
-        <v>58280.57147577435</v>
+        <v>23521.3693347408</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D95">
-        <v>71959.32761543605</v>
+        <v>40775.76420111411</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D96">
-        <v>70435.17230530966</v>
+        <v>28639.83617454446</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D97">
-        <v>55263.39388289367</v>
+        <v>52053.11043258695</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D98">
-        <v>60100.93317597036</v>
+        <v>48774.9648049682</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99">
-        <v>8913.096587130136</v>
+        <v>68301.8876667179</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D100">
-        <v>48106.07951787474</v>
+        <v>47391.37850499534</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D101">
-        <v>34857.75769318041</v>
+        <v>44605.69844634696</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,16 +334,16 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>67979.95953348656</v>
+        <v>43280.88798035587</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>40828.12976840018</v>
+        <v>41916.71128701417</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>33754.17486792504</v>
+        <v>35300.20222673063</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>59461.79794828069</v>
+        <v>21429.74706424182</v>
       </c>
       <c r="E5" t="s">
         <v>108</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>30282.8267460695</v>
+        <v>23966.55761261256</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>-429.8164490719647</v>
+        <v>33547.03611508547</v>
       </c>
       <c r="E7" t="s">
         <v>109</v>
@@ -859,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>20545.27082567008</v>
+        <v>49373.38278145822</v>
       </c>
       <c r="E8" t="s">
         <v>106</v>
@@ -882,10 +882,10 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>47475.17077606673</v>
+        <v>62370.22479128866</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>45601.43699104919</v>
+        <v>70230.08714289936</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>28907.63424982308</v>
+        <v>63042.7074499002</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>34426.95023506079</v>
+        <v>64656.0646303109</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>31773.51323254774</v>
+        <v>69309.65532438687</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>24170.7391632043</v>
+        <v>50527.18051348902</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>44540.58877575806</v>
+        <v>28957.79871318877</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>65912.62319524803</v>
+        <v>44590.72908162102</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>48968.62762211618</v>
+        <v>52222.32393848203</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>91614.93853108476</v>
+        <v>63124.2572889311</v>
       </c>
       <c r="E18" t="s">
         <v>109</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>37481.06080876756</v>
+        <v>48072.0070351539</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,10 +1099,10 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>41542.33108002172</v>
+        <v>64393.82138144188</v>
       </c>
       <c r="E20" t="s">
         <v>106</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>61314.18221023549</v>
+        <v>49544.23786693156</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>34523.41990515256</v>
+        <v>51985.99660910703</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,10 +1159,10 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>38107.78989454511</v>
+        <v>33495.91445908861</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>55919.89595460524</v>
+        <v>42183.32868948612</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>64257.6664416229</v>
+        <v>68587.35328453602</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>62036.73260729838</v>
+        <v>44739.54354780091</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>72627.44714200342</v>
+        <v>44486.05199732853</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,10 +1259,10 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>17188.40923894353</v>
+        <v>63194.81342637588</v>
       </c>
       <c r="E28" t="s">
         <v>108</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>44667.52402988356</v>
+        <v>53663.13011734263</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>54421.60036892461</v>
+        <v>74636.268026429</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>48936.39421446829</v>
+        <v>34630.75818333997</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>64981.61486985759</v>
+        <v>46526.08644528885</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>44419.00997827406</v>
+        <v>60015.78247310322</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,10 +1379,10 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>52194.83097108612</v>
+        <v>65577.1795182229</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
@@ -1399,10 +1399,10 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>66344.66272877694</v>
+        <v>58284.64655591427</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>18429.35621639261</v>
+        <v>55806.24211967656</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>60165.82835357722</v>
+        <v>57156.99281672921</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D38">
-        <v>56943.89517019719</v>
+        <v>56756.81901389329</v>
       </c>
       <c r="E38" t="s">
         <v>109</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D39">
-        <v>75539.62684778807</v>
+        <v>71860.5802391186</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D40">
-        <v>39009.93471108282</v>
+        <v>67228.22978114593</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D41">
-        <v>73203.81725743369</v>
+        <v>57076.51850164592</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D42">
-        <v>73344.47921504545</v>
+        <v>53330.7020871363</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D43">
-        <v>74229.29205443145</v>
+        <v>17245.78749590057</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D44">
-        <v>51577.67653176152</v>
+        <v>60102.12400963726</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,10 +1599,10 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>64532.47533691711</v>
+        <v>49712.11059152657</v>
       </c>
       <c r="E45" t="s">
         <v>107</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>58569.81389335859</v>
+        <v>69033.19252366333</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>57928.12573698728</v>
+        <v>55083.9446441113</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>48748.64503863614</v>
+        <v>46663.32777464388</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>37598.00401167246</v>
+        <v>30020.38369894498</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D50">
-        <v>45835.70213241024</v>
+        <v>53205.4815138439</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,10 +1719,10 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D51">
-        <v>42629.61238063469</v>
+        <v>90391.78064503073</v>
       </c>
       <c r="E51" t="s">
         <v>106</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>74672.97455191411</v>
+        <v>43484.09140885493</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>36073.42844237869</v>
+        <v>32609.07453715765</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,10 +1779,10 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D54">
-        <v>41928.64679789499</v>
+        <v>87213.97700092684</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D55">
-        <v>49059.6589598358</v>
+        <v>35151.91921935578</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>77158.65947400694</v>
+        <v>2832.626444493491</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D57">
-        <v>42220.05036019091</v>
+        <v>48600.61663949527</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,10 +1859,10 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D58">
-        <v>56963.36767491284</v>
+        <v>36700.64230537543</v>
       </c>
       <c r="E58" t="s">
         <v>108</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>46225.13124093303</v>
+        <v>50941.5464615476</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>89354.64221880394</v>
+        <v>35148.31586933087</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D61">
-        <v>79466.19045323633</v>
+        <v>50158.41142728506</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,13 +1939,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D62">
-        <v>72216.34697722505</v>
+        <v>49596.51049352288</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D63">
-        <v>61222.30603311075</v>
+        <v>53449.1522380485</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D64">
-        <v>49623.78841247678</v>
+        <v>57533.2195464767</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D65">
-        <v>50759.21971134344</v>
+        <v>66710.49525746857</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D66">
-        <v>37615.41093466312</v>
+        <v>17855.50774696721</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D67">
-        <v>59341.25536237581</v>
+        <v>34948.81798945112</v>
       </c>
       <c r="E67" t="s">
         <v>109</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>72410.65837289362</v>
+        <v>58361.30894744309</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,10 +2079,10 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D69">
-        <v>56482.96082610474</v>
+        <v>54461.82941676523</v>
       </c>
       <c r="E69" t="s">
         <v>108</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D70">
-        <v>57147.29809449907</v>
+        <v>52819.75734205506</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D71">
-        <v>50942.55588084797</v>
+        <v>21891.18184008288</v>
       </c>
       <c r="E71" t="s">
         <v>108</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D72">
-        <v>50128.18298008758</v>
+        <v>50634.86933518758</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D73">
-        <v>58427.53247633883</v>
+        <v>50843.58765562771</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D74">
-        <v>36428.44675090557</v>
+        <v>64131.80172987163</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>54648.96733104593</v>
+        <v>37081.73641278472</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,10 +2219,10 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D76">
-        <v>52649.50725847053</v>
+        <v>29751.45633543389</v>
       </c>
       <c r="E76" t="s">
         <v>108</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D77">
-        <v>25527.2542774491</v>
+        <v>49432.20949638906</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,10 +2259,10 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D78">
-        <v>88489.18569951195</v>
+        <v>50394.83599412232</v>
       </c>
       <c r="E78" t="s">
         <v>109</v>
@@ -2279,10 +2279,10 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D79">
-        <v>37201.61857794393</v>
+        <v>46232.53489664588</v>
       </c>
       <c r="E79" t="s">
         <v>106</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>51358.80450722572</v>
+        <v>35024.5950048727</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2322,10 +2322,10 @@
         <v>43</v>
       </c>
       <c r="D81">
-        <v>17521.76914687453</v>
+        <v>8044.422408858316</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D82">
-        <v>43799.53920455123</v>
+        <v>34181.20425780259</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>59344.74493443614</v>
+        <v>54365.52386079101</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D84">
-        <v>57023.77958201482</v>
+        <v>57944.16012884343</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,10 +2399,10 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D85">
-        <v>31414.09631529187</v>
+        <v>53382.35993749087</v>
       </c>
       <c r="E85" t="s">
         <v>107</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D86">
-        <v>67327.00367698338</v>
+        <v>66564.69712412701</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D87">
-        <v>54800.44839367361</v>
+        <v>65028.3045741131</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,10 +2459,10 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D88">
-        <v>49514.40391132789</v>
+        <v>35812.95522375638</v>
       </c>
       <c r="E88" t="s">
         <v>106</v>
@@ -2479,10 +2479,10 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D89">
-        <v>59495.04484993737</v>
+        <v>21462.31342597894</v>
       </c>
       <c r="E89" t="s">
         <v>106</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>60008.25027818808</v>
+        <v>46469.9371659594</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D91">
-        <v>43577.15633592531</v>
+        <v>31153.21032337736</v>
       </c>
       <c r="E91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D92">
-        <v>64350.62854937136</v>
+        <v>69557.90719657573</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D93">
-        <v>45165.46564699291</v>
+        <v>68775.57456906028</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D94">
-        <v>23521.3693347408</v>
+        <v>37642.38367380832</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,10 +2599,10 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D95">
-        <v>40775.76420111411</v>
+        <v>62335.46193905683</v>
       </c>
       <c r="E95" t="s">
         <v>108</v>
@@ -2619,10 +2619,10 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D96">
-        <v>28639.83617454446</v>
+        <v>45874.67872494704</v>
       </c>
       <c r="E96" t="s">
         <v>107</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D97">
-        <v>52053.11043258695</v>
+        <v>37959.31687872521</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,10 +2659,10 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D98">
-        <v>48774.9648049682</v>
+        <v>60079.24448474101</v>
       </c>
       <c r="E98" t="s">
         <v>106</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99">
-        <v>68301.8876667179</v>
+        <v>54120.37047928745</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D100">
-        <v>47391.37850499534</v>
+        <v>40830.25309403423</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D101">
-        <v>44605.69844634696</v>
+        <v>43414.4325289646</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,6 +334,9 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>Finance</t>
   </si>
   <si>
@@ -341,9 +344,6 @@
   </si>
   <si>
     <t>IT</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>43280.88798035587</v>
+        <v>58797.88880256171</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>41916.71128701417</v>
+        <v>64667.68845683835</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2">
         <v>43832</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>35300.20222673063</v>
+        <v>76062.27366079095</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>21429.74706424182</v>
+        <v>50491.15350277472</v>
       </c>
       <c r="E5" t="s">
         <v>108</v>
@@ -819,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>23966.55761261256</v>
+        <v>48740.60014503243</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -839,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>33547.03611508547</v>
+        <v>26094.36881618797</v>
       </c>
       <c r="E7" t="s">
         <v>109</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>49373.38278145822</v>
+        <v>46503.8859573486</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>62370.22479128866</v>
+        <v>64484.20338040216</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>70230.08714289936</v>
+        <v>22090.79316226132</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>63042.7074499002</v>
+        <v>43490.0251319538</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>64656.0646303109</v>
+        <v>24271.47134248514</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>69309.65532438687</v>
+        <v>20261.6982316451</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>50527.18051348902</v>
+        <v>56787.15950619255</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>28957.79871318877</v>
+        <v>61386.46179927413</v>
       </c>
       <c r="E15" t="s">
         <v>109</v>
@@ -1019,10 +1019,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>44590.72908162102</v>
+        <v>31895.53490344392</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
@@ -1039,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>52222.32393848203</v>
+        <v>55225.04109875856</v>
       </c>
       <c r="E17" t="s">
         <v>108</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>63124.2572889311</v>
+        <v>61400.58176318274</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>48072.0070351539</v>
+        <v>59011.44539105639</v>
       </c>
       <c r="E19" t="s">
         <v>109</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>64393.82138144188</v>
+        <v>66251.72603331342</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>49544.23786693156</v>
+        <v>40115.78219059277</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>51985.99660910703</v>
+        <v>56504.61382890776</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>33495.91445908861</v>
+        <v>58310.95637021293</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,10 +1179,10 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>42183.32868948612</v>
+        <v>45898.70409044463</v>
       </c>
       <c r="E24" t="s">
         <v>107</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>68587.35328453602</v>
+        <v>53967.12649278286</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>44739.54354780091</v>
+        <v>51708.47128025023</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>44486.05199732853</v>
+        <v>28896.33235694223</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1262,10 +1262,10 @@
         <v>48</v>
       </c>
       <c r="D28">
-        <v>63194.81342637588</v>
+        <v>33998.91111595448</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>53663.13011734263</v>
+        <v>46748.49319951311</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>74636.268026429</v>
+        <v>80680.5061760634</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,10 +1319,10 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>34630.75818333997</v>
+        <v>62288.03235097609</v>
       </c>
       <c r="E31" t="s">
         <v>107</v>
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>46526.08644528885</v>
+        <v>70267.68893325281</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -1362,10 +1362,10 @@
         <v>54</v>
       </c>
       <c r="D33">
-        <v>60015.78247310322</v>
+        <v>48820.64064746496</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>65577.1795182229</v>
+        <v>60834.49022219858</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,10 +1399,10 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35">
-        <v>58284.64655591427</v>
+        <v>73362.42505976264</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>55806.24211967656</v>
+        <v>64276.44785258052</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>57156.99281672921</v>
+        <v>50854.78588595548</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38">
-        <v>56756.81901389329</v>
+        <v>60292.06757314538</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,10 +1479,10 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>71860.5802391186</v>
+        <v>46919.4085900977</v>
       </c>
       <c r="E39" t="s">
         <v>107</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>67228.22978114593</v>
+        <v>61661.95743948025</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>57076.51850164592</v>
+        <v>46532.88474549876</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>53330.7020871363</v>
+        <v>30648.16361697175</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>17245.78749590057</v>
+        <v>41914.93328236601</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D44">
-        <v>60102.12400963726</v>
+        <v>-2942.774167156552</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D45">
-        <v>49712.11059152657</v>
+        <v>39911.64661075425</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D46">
-        <v>69033.19252366333</v>
+        <v>75815.29131914025</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>55083.9446441113</v>
+        <v>15632.68277489828</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,10 +1659,10 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>46663.32777464388</v>
+        <v>46717.71265338435</v>
       </c>
       <c r="E48" t="s">
         <v>106</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>30020.38369894498</v>
+        <v>30322.5696838013</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D50">
-        <v>53205.4815138439</v>
+        <v>32557.06175340518</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>90391.78064503073</v>
+        <v>41281.82368300335</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>43484.09140885493</v>
+        <v>70155.16660952521</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D53">
-        <v>32609.07453715765</v>
+        <v>49393.22997169126</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,10 +1779,10 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>87213.97700092684</v>
+        <v>45773.94818275315</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D55">
-        <v>35151.91921935578</v>
+        <v>40119.82262776418</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,10 +1819,10 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D56">
-        <v>2832.626444493491</v>
+        <v>67382.2660089772</v>
       </c>
       <c r="E56" t="s">
         <v>107</v>
@@ -1839,10 +1839,10 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D57">
-        <v>48600.61663949527</v>
+        <v>46155.66811317176</v>
       </c>
       <c r="E57" t="s">
         <v>106</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>36700.64230537543</v>
+        <v>37560.50257634529</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>50941.5464615476</v>
+        <v>68473.91668017663</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,10 +1899,10 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D60">
-        <v>35148.31586933087</v>
+        <v>83496.46815307882</v>
       </c>
       <c r="E60" t="s">
         <v>107</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>50158.41142728506</v>
+        <v>51975.45857616821</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,13 +1939,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D62">
-        <v>49596.51049352288</v>
+        <v>35584.8388044579</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>53449.1522380485</v>
+        <v>51148.26838926896</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D64">
-        <v>57533.2195464767</v>
+        <v>46980.53711097424</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D65">
-        <v>66710.49525746857</v>
+        <v>71379.24244886194</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D66">
-        <v>17855.50774696721</v>
+        <v>47514.97952651841</v>
       </c>
       <c r="E66" t="s">
         <v>109</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D67">
-        <v>34948.81798945112</v>
+        <v>20766.40755565231</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D68">
-        <v>58361.30894744309</v>
+        <v>62688.82853522068</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,10 +2079,10 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D69">
-        <v>54461.82941676523</v>
+        <v>59076.34850020636</v>
       </c>
       <c r="E69" t="s">
         <v>108</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>52819.75734205506</v>
+        <v>28625.37693676915</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>21891.18184008288</v>
+        <v>35140.24707516926</v>
       </c>
       <c r="E71" t="s">
         <v>108</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D72">
-        <v>50634.86933518758</v>
+        <v>41979.43705227078</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D73">
-        <v>50843.58765562771</v>
+        <v>27607.96697336551</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D74">
-        <v>64131.80172987163</v>
+        <v>34019.88907278546</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,10 +2199,10 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D75">
-        <v>37081.73641278472</v>
+        <v>48615.77931641693</v>
       </c>
       <c r="E75" t="s">
         <v>109</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D76">
-        <v>29751.45633543389</v>
+        <v>77930.9415970971</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2242,7 +2242,7 @@
         <v>62</v>
       </c>
       <c r="D77">
-        <v>49432.20949638906</v>
+        <v>47780.39311463258</v>
       </c>
       <c r="E77" t="s">
         <v>108</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>50394.83599412232</v>
+        <v>53566.24672478217</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D79">
-        <v>46232.53489664588</v>
+        <v>64909.18173909262</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D80">
-        <v>35024.5950048727</v>
+        <v>45497.39516888961</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D81">
-        <v>8044.422408858316</v>
+        <v>70463.48001819503</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D82">
-        <v>34181.20425780259</v>
+        <v>33292.13705969095</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D83">
-        <v>54365.52386079101</v>
+        <v>20673.25846883551</v>
       </c>
       <c r="E83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>57944.16012884343</v>
+        <v>21849.03860117991</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2402,10 +2402,10 @@
         <v>22</v>
       </c>
       <c r="D85">
-        <v>53382.35993749087</v>
+        <v>50806.9892766886</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D86">
-        <v>66564.69712412701</v>
+        <v>43531.85748503896</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D87">
-        <v>65028.3045741131</v>
+        <v>63398.84222626186</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D88">
-        <v>35812.95522375638</v>
+        <v>59178.18410993867</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89">
-        <v>21462.31342597894</v>
+        <v>38236.61381867401</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D90">
-        <v>46469.9371659594</v>
+        <v>71805.50449966626</v>
       </c>
       <c r="E90" t="s">
         <v>109</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D91">
-        <v>31153.21032337736</v>
+        <v>67387.77563583551</v>
       </c>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,10 +2539,10 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92">
-        <v>69557.90719657573</v>
+        <v>49681.15806285247</v>
       </c>
       <c r="E92" t="s">
         <v>109</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D93">
-        <v>68775.57456906028</v>
+        <v>59307.48082977966</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D94">
-        <v>37642.38367380832</v>
+        <v>48996.19952188724</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D95">
-        <v>62335.46193905683</v>
+        <v>65004.62064158805</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D96">
-        <v>45874.67872494704</v>
+        <v>30721.01839049122</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,10 +2639,10 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D97">
-        <v>37959.31687872521</v>
+        <v>48591.96763066368</v>
       </c>
       <c r="E97" t="s">
         <v>109</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D98">
-        <v>60079.24448474101</v>
+        <v>26107.58595872492</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>54120.37047928745</v>
+        <v>42859.14027489922</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D100">
-        <v>40830.25309403423</v>
+        <v>43126.74465254243</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D101">
-        <v>43414.4325289646</v>
+        <v>34562.2954243918</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,13 +334,13 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>HR</t>
   </si>
   <si>
     <t>IT</t>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>58797.88880256171</v>
+        <v>30074.50777443211</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>64667.68845683835</v>
+        <v>25312.10906234435</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2">
         <v>43832</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>76062.27366079095</v>
+        <v>49356.41291289172</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>50491.15350277472</v>
+        <v>34168.99003434127</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>48740.60014503243</v>
+        <v>50882.48285421634</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>26094.36881618797</v>
+        <v>51486.84630161199</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>46503.8859573486</v>
+        <v>40578.11581912742</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>64484.20338040216</v>
+        <v>49341.8228565984</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>22090.79316226132</v>
+        <v>30242.37466106252</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>43490.0251319538</v>
+        <v>70515.22447812978</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>24271.47134248514</v>
+        <v>51556.69614021874</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>20261.6982316451</v>
+        <v>49580.766229137</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>56787.15950619255</v>
+        <v>61729.66521853963</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>61386.46179927413</v>
+        <v>60565.21688866829</v>
       </c>
       <c r="E15" t="s">
         <v>109</v>
@@ -1019,10 +1019,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>31895.53490344392</v>
+        <v>58694.70874321564</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>55225.04109875856</v>
+        <v>52612.78675013988</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>61400.58176318274</v>
+        <v>38696.20346526454</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>59011.44539105639</v>
+        <v>50466.37694172837</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>66251.72603331342</v>
+        <v>55472.4736748426</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>40115.78219059277</v>
+        <v>70132.68981893499</v>
       </c>
       <c r="E21" t="s">
         <v>108</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>56504.61382890776</v>
+        <v>29725.51391283204</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>58310.95637021293</v>
+        <v>71188.9592774161</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,10 +1179,10 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>45898.70409044463</v>
+        <v>16678.07275939864</v>
       </c>
       <c r="E24" t="s">
         <v>107</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>53967.12649278286</v>
+        <v>52687.86124854376</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>51708.47128025023</v>
+        <v>44632.28431670129</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>28896.33235694223</v>
+        <v>59046.3986595922</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>33998.91111595448</v>
+        <v>35902.58485503524</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>46748.49319951311</v>
+        <v>66519.49243823154</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>80680.5061760634</v>
+        <v>33070.48869200362</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>62288.03235097609</v>
+        <v>49734.37704709265</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>70267.68893325281</v>
+        <v>9231.909981720935</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -1359,10 +1359,10 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>48820.64064746496</v>
+        <v>49308.31201639537</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>60834.49022219858</v>
+        <v>78934.16837751048</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,10 +1399,10 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35">
-        <v>73362.42505976264</v>
+        <v>63961.08915832146</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>64276.44785258052</v>
+        <v>41494.89274968689</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>50854.78588595548</v>
+        <v>39259.81069588233</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>60292.06757314538</v>
+        <v>51912.45443951691</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,10 +1479,10 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D39">
-        <v>46919.4085900977</v>
+        <v>67699.26017935367</v>
       </c>
       <c r="E39" t="s">
         <v>107</v>
@@ -1499,10 +1499,10 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>61661.95743948025</v>
+        <v>36535.06359615141</v>
       </c>
       <c r="E40" t="s">
         <v>109</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>46532.88474549876</v>
+        <v>50871.9871027597</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,10 +1539,10 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D42">
-        <v>30648.16361697175</v>
+        <v>27750.78069281532</v>
       </c>
       <c r="E42" t="s">
         <v>107</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>41914.93328236601</v>
+        <v>47430.1578864054</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>-2942.774167156552</v>
+        <v>55617.53688170917</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>39911.64661075425</v>
+        <v>85042.15648625698</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>75815.29131914025</v>
+        <v>34340.76048293252</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D47">
-        <v>15632.68277489828</v>
+        <v>64781.02704235892</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>46717.71265338435</v>
+        <v>64934.18474626762</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>30322.5696838013</v>
+        <v>46481.26817008301</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>32557.06175340518</v>
+        <v>42811.17309042853</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>41281.82368300335</v>
+        <v>55936.75606723633</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>70155.16660952521</v>
+        <v>58460.42960308702</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,10 +1759,10 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D53">
-        <v>49393.22997169126</v>
+        <v>21266.28671394686</v>
       </c>
       <c r="E53" t="s">
         <v>107</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D54">
-        <v>45773.94818275315</v>
+        <v>37788.83439641813</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,10 +1799,10 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>40119.82262776418</v>
+        <v>36545.90858210589</v>
       </c>
       <c r="E55" t="s">
         <v>106</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>67382.2660089772</v>
+        <v>44661.54087938031</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D57">
-        <v>46155.66811317176</v>
+        <v>62333.83486969924</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>37560.50257634529</v>
+        <v>36129.87529049692</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D59">
-        <v>68473.91668017663</v>
+        <v>31022.2106880348</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D60">
-        <v>83496.46815307882</v>
+        <v>45782.54627459231</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,10 +1919,10 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>51975.45857616821</v>
+        <v>46818.57667109967</v>
       </c>
       <c r="E61" t="s">
         <v>109</v>
@@ -1942,10 +1942,10 @@
         <v>37</v>
       </c>
       <c r="D62">
-        <v>35584.8388044579</v>
+        <v>21365.3618037437</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,10 +1959,10 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D63">
-        <v>51148.26838926896</v>
+        <v>40866.67165107006</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -1979,10 +1979,10 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>46980.53711097424</v>
+        <v>21946.75104676944</v>
       </c>
       <c r="E64" t="s">
         <v>108</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D65">
-        <v>71379.24244886194</v>
+        <v>60989.58513609327</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>47514.97952651841</v>
+        <v>25382.81798827344</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>20766.40755565231</v>
+        <v>46933.79209350242</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,10 +2059,10 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D68">
-        <v>62688.82853522068</v>
+        <v>47503.2388884553</v>
       </c>
       <c r="E68" t="s">
         <v>106</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D69">
-        <v>59076.34850020636</v>
+        <v>43369.54978292642</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D70">
-        <v>28625.37693676915</v>
+        <v>46784.63726984106</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>35140.24707516926</v>
+        <v>61443.69222443579</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>41979.43705227078</v>
+        <v>43622.67834477612</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D73">
-        <v>27607.96697336551</v>
+        <v>43479.91503809611</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>34019.88907278546</v>
+        <v>49210.39734375697</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>48615.77931641693</v>
+        <v>46252.93080581314</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D76">
-        <v>77930.9415970971</v>
+        <v>40347.15512958598</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2242,7 +2242,7 @@
         <v>62</v>
       </c>
       <c r="D77">
-        <v>47780.39311463258</v>
+        <v>47006.4284214267</v>
       </c>
       <c r="E77" t="s">
         <v>108</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D78">
-        <v>53566.24672478217</v>
+        <v>46635.39891010529</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D79">
-        <v>64909.18173909262</v>
+        <v>40811.45148038472</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D80">
-        <v>45497.39516888961</v>
+        <v>45841.21515080203</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D81">
-        <v>70463.48001819503</v>
+        <v>81012.62353055416</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D82">
-        <v>33292.13705969095</v>
+        <v>39057.35083298635</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D83">
-        <v>20673.25846883551</v>
+        <v>39143.75355994188</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,10 +2379,10 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>21849.03860117991</v>
+        <v>64570.20577472127</v>
       </c>
       <c r="E84" t="s">
         <v>109</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D85">
-        <v>50806.9892766886</v>
+        <v>36802.60190524485</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>43531.85748503896</v>
+        <v>27627.93893067819</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D87">
-        <v>63398.84222626186</v>
+        <v>58046.16919385124</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D88">
-        <v>59178.18410993867</v>
+        <v>39964.45744591343</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,10 +2479,10 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>38236.61381867401</v>
+        <v>43896.89069560646</v>
       </c>
       <c r="E89" t="s">
         <v>109</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D90">
-        <v>71805.50449966626</v>
+        <v>58086.81986535043</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D91">
-        <v>67387.77563583551</v>
+        <v>56287.08331428993</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D92">
-        <v>49681.15806285247</v>
+        <v>44043.57167085278</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D93">
-        <v>59307.48082977966</v>
+        <v>42436.91491923825</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,10 +2579,10 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D94">
-        <v>48996.19952188724</v>
+        <v>62512.31923831355</v>
       </c>
       <c r="E94" t="s">
         <v>106</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D95">
-        <v>65004.62064158805</v>
+        <v>32887.56014141175</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,10 +2619,10 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D96">
-        <v>30721.01839049122</v>
+        <v>71816.55884099216</v>
       </c>
       <c r="E96" t="s">
         <v>109</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D97">
-        <v>48591.96763066368</v>
+        <v>43770.17309001769</v>
       </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D98">
-        <v>26107.58595872492</v>
+        <v>67412.24530129826</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,10 +2679,10 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D99">
-        <v>42859.14027489922</v>
+        <v>51708.75357532872</v>
       </c>
       <c r="E99" t="s">
         <v>108</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D100">
-        <v>43126.74465254243</v>
+        <v>49442.1565496394</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,10 +2719,10 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D101">
-        <v>34562.2954243918</v>
+        <v>61539.56637406456</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,13 +334,13 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>Finance</t>
   </si>
   <si>
     <t>HR</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
   <si>
     <t>IT</t>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>30074.50777443211</v>
+        <v>33687.24834583452</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>25312.10906234435</v>
+        <v>36163.13496734823</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>49356.41291289172</v>
+        <v>62013.06115848823</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>34168.99003434127</v>
+        <v>51815.53012192902</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>50882.48285421634</v>
+        <v>19818.98206612008</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>51486.84630161199</v>
+        <v>76449.0765497706</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>40578.11581912742</v>
+        <v>30693.06636376728</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>49341.8228565984</v>
+        <v>66873.8047525398</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>30242.37466106252</v>
+        <v>56908.11255606913</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>70515.22447812978</v>
+        <v>46792.56449717277</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>51556.69614021874</v>
+        <v>21394.00884670069</v>
       </c>
       <c r="E12" t="s">
         <v>106</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>49580.766229137</v>
+        <v>42594.38100802594</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>61729.66521853963</v>
+        <v>39965.67494840395</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>60565.21688866829</v>
+        <v>31822.67567391506</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>58694.70874321564</v>
+        <v>42188.04164685563</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>52612.78675013988</v>
+        <v>59842.13766712673</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>38696.20346526454</v>
+        <v>27909.81474210216</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>50466.37694172837</v>
+        <v>30101.71032549441</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>55472.4736748426</v>
+        <v>58089.08690862536</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>70132.68981893499</v>
+        <v>48229.01243764988</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>29725.51391283204</v>
+        <v>27000.25133126807</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>71188.9592774161</v>
+        <v>8382.247140702857</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,10 +1179,10 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>16678.07275939864</v>
+        <v>33822.21871783669</v>
       </c>
       <c r="E24" t="s">
         <v>107</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>52687.86124854376</v>
+        <v>32392.18765505714</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1222,10 +1222,10 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>44632.28431670129</v>
+        <v>62884.60100272564</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,10 +1239,10 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>59046.3986595922</v>
+        <v>23547.35751170837</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>35902.58485503524</v>
+        <v>45069.79581380285</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>66519.49243823154</v>
+        <v>29120.30002764967</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>33070.48869200362</v>
+        <v>48225.83518716157</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>49734.37704709265</v>
+        <v>45075.08527616663</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>9231.909981720935</v>
+        <v>40645.27565398005</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>49308.31201639537</v>
+        <v>45166.31930955777</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>78934.16837751048</v>
+        <v>48012.11190996475</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>63961.08915832146</v>
+        <v>38921.4575176551</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>41494.89274968689</v>
+        <v>44701.07841422519</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <v>39259.81069588233</v>
+        <v>66735.47995503832</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>51912.45443951691</v>
+        <v>70459.32575300592</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>67699.26017935367</v>
+        <v>48550.17363832438</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,10 +1499,10 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>36535.06359615141</v>
+        <v>57060.07295730439</v>
       </c>
       <c r="E40" t="s">
         <v>109</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>50871.9871027597</v>
+        <v>39993.50668680988</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>27750.78069281532</v>
+        <v>6943.746383035016</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D43">
-        <v>47430.1578864054</v>
+        <v>70925.92477069318</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,10 +1579,10 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>55617.53688170917</v>
+        <v>58082.13935630731</v>
       </c>
       <c r="E44" t="s">
         <v>109</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D45">
-        <v>85042.15648625698</v>
+        <v>52363.20044987594</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,10 +1619,10 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>34340.76048293252</v>
+        <v>46500.10213859715</v>
       </c>
       <c r="E46" t="s">
         <v>109</v>
@@ -1639,10 +1639,10 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>64781.02704235892</v>
+        <v>61137.84651992906</v>
       </c>
       <c r="E47" t="s">
         <v>109</v>
@@ -1659,10 +1659,10 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D48">
-        <v>64934.18474626762</v>
+        <v>17325.93987688053</v>
       </c>
       <c r="E48" t="s">
         <v>109</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D49">
-        <v>46481.26817008301</v>
+        <v>46888.32501768967</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,10 +1699,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D50">
-        <v>42811.17309042853</v>
+        <v>54556.46907554627</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D51">
-        <v>55936.75606723633</v>
+        <v>61047.97194310567</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,10 +1739,10 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>58460.42960308702</v>
+        <v>44365.35050035161</v>
       </c>
       <c r="E52" t="s">
         <v>109</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>21266.28671394686</v>
+        <v>62817.60721167125</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>37788.83439641813</v>
+        <v>33741.65441695339</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D55">
-        <v>36545.90858210589</v>
+        <v>47562.01740206133</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D56">
-        <v>44661.54087938031</v>
+        <v>55773.32193284669</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D57">
-        <v>62333.83486969924</v>
+        <v>56354.43835925664</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>36129.87529049692</v>
+        <v>51706.59084425586</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,10 +1879,10 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>31022.2106880348</v>
+        <v>58215.95485606065</v>
       </c>
       <c r="E59" t="s">
         <v>109</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>45782.54627459231</v>
+        <v>35749.72141716837</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>46818.57667109967</v>
+        <v>56027.20201832109</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,13 +1939,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>21365.3618037437</v>
+        <v>39585.46023641385</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D63">
-        <v>40866.67165107006</v>
+        <v>77263.30461096349</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>21946.75104676944</v>
+        <v>50463.90770466833</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>60989.58513609327</v>
+        <v>43333.89224080776</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D66">
-        <v>25382.81798827344</v>
+        <v>77161.25368644382</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>46933.79209350242</v>
+        <v>63601.45150421275</v>
       </c>
       <c r="E67" t="s">
         <v>106</v>
@@ -2059,10 +2059,10 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D68">
-        <v>47503.2388884553</v>
+        <v>58174.56286266498</v>
       </c>
       <c r="E68" t="s">
         <v>106</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69">
-        <v>43369.54978292642</v>
+        <v>49955.53053696085</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,10 +2099,10 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D70">
-        <v>46784.63726984106</v>
+        <v>41849.49882081769</v>
       </c>
       <c r="E70" t="s">
         <v>107</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>61443.69222443579</v>
+        <v>80002.44348543459</v>
       </c>
       <c r="E71" t="s">
         <v>107</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D72">
-        <v>43622.67834477612</v>
+        <v>50212.76666526364</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>43479.91503809611</v>
+        <v>27949.33394107878</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D74">
-        <v>49210.39734375697</v>
+        <v>67499.34645749167</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D75">
-        <v>46252.93080581314</v>
+        <v>62782.81995543422</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D76">
-        <v>40347.15512958598</v>
+        <v>47465.53332469677</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,10 +2239,10 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D77">
-        <v>47006.4284214267</v>
+        <v>33305.9772249076</v>
       </c>
       <c r="E77" t="s">
         <v>108</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D78">
-        <v>46635.39891010529</v>
+        <v>56929.11880947302</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,10 +2279,10 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D79">
-        <v>40811.45148038472</v>
+        <v>67770.65577160317</v>
       </c>
       <c r="E79" t="s">
         <v>107</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>45841.21515080203</v>
+        <v>84436.43925563518</v>
       </c>
       <c r="E80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D81">
-        <v>81012.62353055416</v>
+        <v>25711.68406116375</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D82">
-        <v>39057.35083298635</v>
+        <v>52175.37238972269</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D83">
-        <v>39143.75355994188</v>
+        <v>64409.13387208571</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,10 +2379,10 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D84">
-        <v>64570.20577472127</v>
+        <v>46239.19432539232</v>
       </c>
       <c r="E84" t="s">
         <v>109</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D85">
-        <v>36802.60190524485</v>
+        <v>59941.90234526404</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D86">
-        <v>27627.93893067819</v>
+        <v>81056.43299111977</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D87">
-        <v>58046.16919385124</v>
+        <v>19124.43813164181</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>39964.45744591343</v>
+        <v>80995.34214848212</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D89">
-        <v>43896.89069560646</v>
+        <v>48123.7660631535</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D90">
-        <v>58086.81986535043</v>
+        <v>25191.7679262316</v>
       </c>
       <c r="E90" t="s">
         <v>108</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>56287.08331428993</v>
+        <v>39517.08738391846</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,10 +2539,10 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D92">
-        <v>44043.57167085278</v>
+        <v>38163.60759674533</v>
       </c>
       <c r="E92" t="s">
         <v>106</v>
@@ -2559,10 +2559,10 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>42436.91491923825</v>
+        <v>40349.35254878295</v>
       </c>
       <c r="E93" t="s">
         <v>107</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D94">
-        <v>62512.31923831355</v>
+        <v>53782.90840008459</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D95">
-        <v>32887.56014141175</v>
+        <v>28880.09809059242</v>
       </c>
       <c r="E95" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D96">
-        <v>71816.55884099216</v>
+        <v>60175.11170103856</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D97">
-        <v>43770.17309001769</v>
+        <v>44762.92130982281</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D98">
-        <v>67412.24530129826</v>
+        <v>50229.23688013559</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D99">
-        <v>51708.75357532872</v>
+        <v>56672.72158239436</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D100">
-        <v>49442.1565496394</v>
+        <v>37423.90855557023</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,10 +2719,10 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D101">
-        <v>61539.56637406456</v>
+        <v>29259.30295977803</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,16 +334,16 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>Sales</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Finance</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>33687.24834583452</v>
+        <v>12012.92919338467</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>36163.13496734823</v>
+        <v>51558.09546539575</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>62013.06115848823</v>
+        <v>49199.52676744021</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>51815.53012192902</v>
+        <v>57728.81960959786</v>
       </c>
       <c r="E5" t="s">
         <v>108</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>19818.98206612008</v>
+        <v>27798.71878649646</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>76449.0765497706</v>
+        <v>23600.14706989115</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>30693.06636376728</v>
+        <v>43984.34942792083</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>66873.8047525398</v>
+        <v>47310.12314487329</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>56908.11255606913</v>
+        <v>42724.61509869996</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
@@ -919,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>46792.56449717277</v>
+        <v>76095.53307677268</v>
       </c>
       <c r="E11" t="s">
         <v>106</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>21394.00884670069</v>
+        <v>29568.83194659552</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>42594.38100802594</v>
+        <v>24206.04190167081</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>39965.67494840395</v>
+        <v>48568.68832447314</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>31822.67567391506</v>
+        <v>30219.22963070304</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>42188.04164685563</v>
+        <v>48989.91774377524</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>59842.13766712673</v>
+        <v>56719.49723732831</v>
       </c>
       <c r="E17" t="s">
         <v>108</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>27909.81474210216</v>
+        <v>53095.64407771697</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>30101.71032549441</v>
+        <v>35718.72852808175</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,10 +1099,10 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>58089.08690862536</v>
+        <v>55953.22010074565</v>
       </c>
       <c r="E20" t="s">
         <v>107</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>48229.01243764988</v>
+        <v>67355.42120517233</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>27000.25133126807</v>
+        <v>53476.09102107214</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>8382.247140702857</v>
+        <v>45512.0384721118</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>33822.21871783669</v>
+        <v>56742.28252152587</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>32392.18765505714</v>
+        <v>43811.37945987397</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>62884.60100272564</v>
+        <v>73049.52863358658</v>
       </c>
       <c r="E26" t="s">
         <v>109</v>
@@ -1239,10 +1239,10 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>23547.35751170837</v>
+        <v>62932.96113487369</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>45069.79581380285</v>
+        <v>54678.67487234217</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>29120.30002764967</v>
+        <v>65130.27535671417</v>
       </c>
       <c r="E29" t="s">
         <v>109</v>
@@ -1299,10 +1299,10 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>48225.83518716157</v>
+        <v>45324.46364147547</v>
       </c>
       <c r="E30" t="s">
         <v>106</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>45075.08527616663</v>
+        <v>50315.44737317316</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>40645.27565398005</v>
+        <v>61135.32437054325</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>45166.31930955777</v>
+        <v>44404.58102377797</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1382,10 +1382,10 @@
         <v>42</v>
       </c>
       <c r="D34">
-        <v>48012.11190996475</v>
+        <v>63826.45464477214</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,10 +1399,10 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>38921.4575176551</v>
+        <v>32834.36703160739</v>
       </c>
       <c r="E35" t="s">
         <v>107</v>
@@ -1419,10 +1419,10 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>44701.07841422519</v>
+        <v>64304.57425419804</v>
       </c>
       <c r="E36" t="s">
         <v>109</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>66735.47995503832</v>
+        <v>66241.90511796281</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>70459.32575300592</v>
+        <v>51801.39571652124</v>
       </c>
       <c r="E38" t="s">
         <v>107</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>48550.17363832438</v>
+        <v>40131.60269501586</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>57060.07295730439</v>
+        <v>54624.61848745426</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>39993.50668680988</v>
+        <v>54221.60643736856</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>6943.746383035016</v>
+        <v>21734.79578201802</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>70925.92477069318</v>
+        <v>62676.43249324106</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>58082.13935630731</v>
+        <v>59159.03133633765</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>52363.20044987594</v>
+        <v>46070.46543347323</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D46">
-        <v>46500.10213859715</v>
+        <v>61776.12418018655</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D47">
-        <v>61137.84651992906</v>
+        <v>66401.39407456583</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D48">
-        <v>17325.93987688053</v>
+        <v>48730.8318203509</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>46888.32501768967</v>
+        <v>50124.51105691356</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>54556.46907554627</v>
+        <v>45871.17958903985</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1722,10 +1722,10 @@
         <v>74</v>
       </c>
       <c r="D51">
-        <v>61047.97194310567</v>
+        <v>27604.09616601492</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>44365.35050035161</v>
+        <v>51931.94163774995</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D53">
-        <v>62817.60721167125</v>
+        <v>55621.13198825592</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D54">
-        <v>33741.65441695339</v>
+        <v>23152.94491886148</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>47562.01740206133</v>
+        <v>14146.31843331516</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,10 +1819,10 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>55773.32193284669</v>
+        <v>42380.01824430418</v>
       </c>
       <c r="E56" t="s">
         <v>106</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>56354.43835925664</v>
+        <v>43440.37071729612</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D58">
-        <v>51706.59084425586</v>
+        <v>49164.47397192059</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D59">
-        <v>58215.95485606065</v>
+        <v>45826.32363534654</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D60">
-        <v>35749.72141716837</v>
+        <v>35583.06121174466</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D61">
-        <v>56027.20201832109</v>
+        <v>34029.77837557063</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,10 +1939,10 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D62">
-        <v>39585.46023641385</v>
+        <v>73389.52909404552</v>
       </c>
       <c r="E62" t="s">
         <v>106</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D63">
-        <v>77263.30461096349</v>
+        <v>73773.74338131858</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>50463.90770466833</v>
+        <v>65938.38523582654</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,10 +1999,10 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>43333.89224080776</v>
+        <v>62103.41323382523</v>
       </c>
       <c r="E65" t="s">
         <v>109</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D66">
-        <v>77161.25368644382</v>
+        <v>73863.20501851299</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>63601.45150421275</v>
+        <v>22671.85855958637</v>
       </c>
       <c r="E67" t="s">
         <v>106</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D68">
-        <v>58174.56286266498</v>
+        <v>82730.16559664841</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>49955.53053696085</v>
+        <v>39515.71006723006</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,10 +2099,10 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D70">
-        <v>41849.49882081769</v>
+        <v>79618.89986520421</v>
       </c>
       <c r="E70" t="s">
         <v>107</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D71">
-        <v>80002.44348543459</v>
+        <v>40079.04356192132</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D72">
-        <v>50212.76666526364</v>
+        <v>54552.93885488385</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D73">
-        <v>27949.33394107878</v>
+        <v>66577.85350881428</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D74">
-        <v>67499.34645749167</v>
+        <v>61279.92077520468</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D75">
-        <v>62782.81995543422</v>
+        <v>55409.02423423472</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D76">
-        <v>47465.53332469677</v>
+        <v>50139.3035818414</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D77">
-        <v>33305.9772249076</v>
+        <v>48214.32268534524</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>56929.11880947302</v>
+        <v>52539.72671148401</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D79">
-        <v>67770.65577160317</v>
+        <v>42219.40216141651</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,10 +2299,10 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D80">
-        <v>84436.43925563518</v>
+        <v>41361.44601867083</v>
       </c>
       <c r="E80" t="s">
         <v>108</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D81">
-        <v>25711.68406116375</v>
+        <v>73969.18684901172</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,10 +2339,10 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D82">
-        <v>52175.37238972269</v>
+        <v>77880.3726292145</v>
       </c>
       <c r="E82" t="s">
         <v>106</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D83">
-        <v>64409.13387208571</v>
+        <v>29946.55351070877</v>
       </c>
       <c r="E83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>46239.19432539232</v>
+        <v>55762.08402676814</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,10 +2399,10 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D85">
-        <v>59941.90234526404</v>
+        <v>38090.27055442343</v>
       </c>
       <c r="E85" t="s">
         <v>109</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D86">
-        <v>81056.43299111977</v>
+        <v>57417.35846241419</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D87">
-        <v>19124.43813164181</v>
+        <v>47945.6205365294</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,10 +2459,10 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D88">
-        <v>80995.34214848212</v>
+        <v>37420.30354104874</v>
       </c>
       <c r="E88" t="s">
         <v>107</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D89">
-        <v>48123.7660631535</v>
+        <v>53989.97084078727</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D90">
-        <v>25191.7679262316</v>
+        <v>56713.91865845495</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,10 +2519,10 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>39517.08738391846</v>
+        <v>70940.90130588655</v>
       </c>
       <c r="E91" t="s">
         <v>106</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D92">
-        <v>38163.60759674533</v>
+        <v>38696.61317187863</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,10 +2559,10 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D93">
-        <v>40349.35254878295</v>
+        <v>32635.62937082015</v>
       </c>
       <c r="E93" t="s">
         <v>107</v>
@@ -2579,10 +2579,10 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D94">
-        <v>53782.90840008459</v>
+        <v>67169.27048454189</v>
       </c>
       <c r="E94" t="s">
         <v>108</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D95">
-        <v>28880.09809059242</v>
+        <v>45664.11554630779</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>60175.11170103856</v>
+        <v>47108.6814887361</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D97">
-        <v>44762.92130982281</v>
+        <v>78887.6257195725</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D98">
-        <v>50229.23688013559</v>
+        <v>37682.89432764262</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D99">
-        <v>56672.72158239436</v>
+        <v>43121.2817414894</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D100">
-        <v>37423.90855557023</v>
+        <v>70885.98132174934</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,10 +2719,10 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D101">
-        <v>29259.30295977803</v>
+        <v>56612.37449837392</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,16 +334,16 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>12012.92919338467</v>
+        <v>64250.32434831751</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>51558.09546539575</v>
+        <v>59870.69427403731</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>49199.52676744021</v>
+        <v>83814.9845587391</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2">
         <v>43833</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>57728.81960959786</v>
+        <v>37533.50362876186</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>27798.71878649646</v>
+        <v>49483.81814851159</v>
       </c>
       <c r="E6" t="s">
         <v>107</v>
@@ -839,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>23600.14706989115</v>
+        <v>9204.612003742308</v>
       </c>
       <c r="E7" t="s">
         <v>106</v>
@@ -859,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>43984.34942792083</v>
+        <v>56997.65344940235</v>
       </c>
       <c r="E8" t="s">
         <v>109</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>47310.12314487329</v>
+        <v>69168.80956202868</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>42724.61509869996</v>
+        <v>13279.48853369074</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>76095.53307677268</v>
+        <v>78566.4007639341</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>29568.83194659552</v>
+        <v>32957.0713874815</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>24206.04190167081</v>
+        <v>74633.62326106684</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>48568.68832447314</v>
+        <v>49988.12983837233</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>30219.22963070304</v>
+        <v>86188.16082349559</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>48989.91774377524</v>
+        <v>73201.74154258065</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>56719.49723732831</v>
+        <v>59896.09655114519</v>
       </c>
       <c r="E17" t="s">
         <v>108</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>53095.64407771697</v>
+        <v>57992.98331433609</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>35718.72852808175</v>
+        <v>43336.69608642066</v>
       </c>
       <c r="E19" t="s">
         <v>106</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>55953.22010074565</v>
+        <v>54107.13706242728</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>67355.42120517233</v>
+        <v>22885.91151562927</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>53476.09102107214</v>
+        <v>67782.58036558355</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>45512.0384721118</v>
+        <v>30682.018132908</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>56742.28252152587</v>
+        <v>34635.51027954763</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1202,10 +1202,10 @@
         <v>31</v>
       </c>
       <c r="D25">
-        <v>43811.37945987397</v>
+        <v>53377.33634428673</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>73049.52863358658</v>
+        <v>47701.91917908603</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>62932.96113487369</v>
+        <v>34483.346407386</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,10 +1259,10 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D28">
-        <v>54678.67487234217</v>
+        <v>35917.220007565</v>
       </c>
       <c r="E28" t="s">
         <v>106</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>65130.27535671417</v>
+        <v>61281.50769633296</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>45324.46364147547</v>
+        <v>52418.96113729711</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1322,10 +1322,10 @@
         <v>58</v>
       </c>
       <c r="D31">
-        <v>50315.44737317316</v>
+        <v>45469.32621530053</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>61135.32437054325</v>
+        <v>64992.79302672172</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>44404.58102377797</v>
+        <v>47145.76689285242</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>63826.45464477214</v>
+        <v>58080.22990901006</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>32834.36703160739</v>
+        <v>73363.34799074788</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>64304.57425419804</v>
+        <v>61658.9436242529</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>66241.90511796281</v>
+        <v>56292.3147835143</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D38">
-        <v>51801.39571652124</v>
+        <v>26594.13121472249</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,10 +1479,10 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>40131.60269501586</v>
+        <v>46450.47508456004</v>
       </c>
       <c r="E39" t="s">
         <v>107</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D40">
-        <v>54624.61848745426</v>
+        <v>66238.19411438634</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>54221.60643736856</v>
+        <v>35442.42435092554</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,10 +1539,10 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>21734.79578201802</v>
+        <v>71080.23758392807</v>
       </c>
       <c r="E42" t="s">
         <v>106</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>62676.43249324106</v>
+        <v>58044.97450157671</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>59159.03133633765</v>
+        <v>57763.66088016</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>46070.46543347323</v>
+        <v>49075.93317376676</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>61776.12418018655</v>
+        <v>55470.60831618067</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,10 +1639,10 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D47">
-        <v>66401.39407456583</v>
+        <v>44744.5142017249</v>
       </c>
       <c r="E47" t="s">
         <v>107</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>48730.8318203509</v>
+        <v>37065.11971642084</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>50124.51105691356</v>
+        <v>26751.05994802295</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,10 +1699,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D50">
-        <v>45871.17958903985</v>
+        <v>70365.68324856268</v>
       </c>
       <c r="E50" t="s">
         <v>107</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>27604.09616601492</v>
+        <v>56131.47312333801</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,10 +1739,10 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>51931.94163774995</v>
+        <v>42966.56749743401</v>
       </c>
       <c r="E52" t="s">
         <v>106</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>55621.13198825592</v>
+        <v>59642.55654568338</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,10 +1779,10 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D54">
-        <v>23152.94491886148</v>
+        <v>39401.15763589634</v>
       </c>
       <c r="E54" t="s">
         <v>108</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>14146.31843331516</v>
+        <v>63640.11315752748</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,10 +1819,10 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D56">
-        <v>42380.01824430418</v>
+        <v>48352.99488563673</v>
       </c>
       <c r="E56" t="s">
         <v>106</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D57">
-        <v>43440.37071729612</v>
+        <v>79564.26986300627</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>49164.47397192059</v>
+        <v>50107.53541516297</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>45826.32363534654</v>
+        <v>17457.57106796881</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>35583.06121174466</v>
+        <v>67142.67362819159</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61">
-        <v>34029.77837557063</v>
+        <v>76197.96599234198</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,10 +1939,10 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D62">
-        <v>73389.52909404552</v>
+        <v>40308.3197479216</v>
       </c>
       <c r="E62" t="s">
         <v>106</v>
@@ -1959,10 +1959,10 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D63">
-        <v>73773.74338131858</v>
+        <v>48369.1938126762</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -1979,10 +1979,10 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D64">
-        <v>65938.38523582654</v>
+        <v>49523.06129241889</v>
       </c>
       <c r="E64" t="s">
         <v>109</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D65">
-        <v>62103.41323382523</v>
+        <v>59558.74181913552</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>73863.20501851299</v>
+        <v>50536.89739942407</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D67">
-        <v>22671.85855958637</v>
+        <v>58579.01791487412</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>82730.16559664841</v>
+        <v>28201.06871534792</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,10 +2079,10 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D69">
-        <v>39515.71006723006</v>
+        <v>37513.27136837137</v>
       </c>
       <c r="E69" t="s">
         <v>107</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>79618.89986520421</v>
+        <v>42299.47534638878</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D71">
-        <v>40079.04356192132</v>
+        <v>60234.17873119275</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>54552.93885488385</v>
+        <v>64425.77043968798</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D73">
-        <v>66577.85350881428</v>
+        <v>47133.18634950001</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D74">
-        <v>61279.92077520468</v>
+        <v>72502.83658889563</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>55409.02423423472</v>
+        <v>77414.23802034171</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D76">
-        <v>50139.3035818414</v>
+        <v>30227.98713830839</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D77">
-        <v>48214.32268534524</v>
+        <v>73647.68629902646</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D78">
-        <v>52539.72671148401</v>
+        <v>39753.95520284471</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,10 +2279,10 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D79">
-        <v>42219.40216141651</v>
+        <v>56746.98828352222</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D80">
-        <v>41361.44601867083</v>
+        <v>59509.37898998509</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D81">
-        <v>73969.18684901172</v>
+        <v>38620.8455936178</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,10 +2339,10 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D82">
-        <v>77880.3726292145</v>
+        <v>56348.19020406722</v>
       </c>
       <c r="E82" t="s">
         <v>106</v>
@@ -2359,10 +2359,10 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>29946.55351070877</v>
+        <v>55699.95688298069</v>
       </c>
       <c r="E83" t="s">
         <v>107</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>55762.08402676814</v>
+        <v>61356.23763172323</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,10 +2399,10 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D85">
-        <v>38090.27055442343</v>
+        <v>76430.19341789708</v>
       </c>
       <c r="E85" t="s">
         <v>109</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D86">
-        <v>57417.35846241419</v>
+        <v>28898.6643942125</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D87">
-        <v>47945.6205365294</v>
+        <v>68920.98427160419</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D88">
-        <v>37420.30354104874</v>
+        <v>52774.74647079123</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>53989.97084078727</v>
+        <v>42945.21057082254</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>56713.91865845495</v>
+        <v>62786.55314054813</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D91">
-        <v>70940.90130588655</v>
+        <v>38195.29869664338</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D92">
-        <v>38696.61317187863</v>
+        <v>46993.0675683888</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D93">
-        <v>32635.62937082015</v>
+        <v>48803.84622066492</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D94">
-        <v>67169.27048454189</v>
+        <v>45292.34791400335</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>45664.11554630779</v>
+        <v>39974.47626384534</v>
       </c>
       <c r="E95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D96">
-        <v>47108.6814887361</v>
+        <v>54526.49345581784</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,10 +2639,10 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97">
-        <v>78887.6257195725</v>
+        <v>51127.32590131826</v>
       </c>
       <c r="E97" t="s">
         <v>109</v>
@@ -2659,10 +2659,10 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D98">
-        <v>37682.89432764262</v>
+        <v>35850.22278816523</v>
       </c>
       <c r="E98" t="s">
         <v>107</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D99">
-        <v>43121.2817414894</v>
+        <v>56390.72627271497</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D100">
-        <v>70885.98132174934</v>
+        <v>51902.59501113115</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D101">
-        <v>56612.37449837392</v>
+        <v>58916.01886810295</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -337,13 +337,13 @@
     <t>IT</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>HR</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>64250.32434831751</v>
+        <v>63476.4011693819</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>59870.69427403731</v>
+        <v>60657.73347741071</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>83814.9845587391</v>
+        <v>71173.93292476283</v>
       </c>
       <c r="E4" t="s">
         <v>108</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>37533.50362876186</v>
+        <v>72401.60783671177</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>49483.81814851159</v>
+        <v>46108.48661915051</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>9204.612003742308</v>
+        <v>55480.09054995058</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>56997.65344940235</v>
+        <v>65120.15869411224</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>69168.80956202868</v>
+        <v>58682.28886268384</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>13279.48853369074</v>
+        <v>42259.02277562863</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>78566.4007639341</v>
+        <v>46262.08320330756</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>32957.0713874815</v>
+        <v>69916.52413711358</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>74633.62326106684</v>
+        <v>48946.35510056093</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>49988.12983837233</v>
+        <v>18400.496242824</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>86188.16082349559</v>
+        <v>64102.74038070239</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>73201.74154258065</v>
+        <v>52309.08251674708</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>59896.09655114519</v>
+        <v>55796.22061509985</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>57992.98331433609</v>
+        <v>62019.3059653185</v>
       </c>
       <c r="E18" t="s">
         <v>106</v>
@@ -1079,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>43336.69608642066</v>
+        <v>59440.31014308149</v>
       </c>
       <c r="E19" t="s">
         <v>106</v>
@@ -1099,10 +1099,10 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>54107.13706242728</v>
+        <v>69631.68717032489</v>
       </c>
       <c r="E20" t="s">
         <v>108</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>22885.91151562927</v>
+        <v>37480.56119456859</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,10 +1139,10 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>67782.58036558355</v>
+        <v>41616.09632968874</v>
       </c>
       <c r="E22" t="s">
         <v>106</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>30682.018132908</v>
+        <v>57239.54411736289</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>34635.51027954763</v>
+        <v>79331.45299673497</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,10 +1199,10 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>53377.33634428673</v>
+        <v>20837.61051842583</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
@@ -1219,13 +1219,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>47701.91917908603</v>
+        <v>51232.62001662394</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2">
         <v>43855</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>34483.346407386</v>
+        <v>56724.73899607028</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>35917.220007565</v>
+        <v>57376.62555958764</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>61281.50769633296</v>
+        <v>63424.430568752</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,10 +1299,10 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>52418.96113729711</v>
+        <v>56857.27875567708</v>
       </c>
       <c r="E30" t="s">
         <v>107</v>
@@ -1319,10 +1319,10 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D31">
-        <v>45469.32621530053</v>
+        <v>47721.62705600441</v>
       </c>
       <c r="E31" t="s">
         <v>108</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>64992.79302672172</v>
+        <v>28319.64348663684</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,10 +1359,10 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>47145.76689285242</v>
+        <v>70388.82639709365</v>
       </c>
       <c r="E33" t="s">
         <v>109</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D34">
-        <v>58080.22990901006</v>
+        <v>22055.48114161167</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>73363.34799074788</v>
+        <v>54178.86754608874</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>61658.9436242529</v>
+        <v>80941.95245239604</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>56292.3147835143</v>
+        <v>29769.73440187222</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>26594.13121472249</v>
+        <v>44836.56030275881</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>46450.47508456004</v>
+        <v>54703.87735898634</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,10 +1499,10 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>66238.19411438634</v>
+        <v>57824.36709662789</v>
       </c>
       <c r="E40" t="s">
         <v>107</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>35442.42435092554</v>
+        <v>71025.24039464995</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D42">
-        <v>71080.23758392807</v>
+        <v>56635.58303365922</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,10 +1559,10 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>58044.97450157671</v>
+        <v>24924.59353669511</v>
       </c>
       <c r="E43" t="s">
         <v>107</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>57763.66088016</v>
+        <v>56439.90011246235</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>49075.93317376676</v>
+        <v>71821.73558282062</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>55470.60831618067</v>
+        <v>58919.09226398209</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>44744.5142017249</v>
+        <v>61342.01155313586</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>37065.11971642084</v>
+        <v>67474.82804901214</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>26751.05994802295</v>
+        <v>35608.90798764869</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D50">
-        <v>70365.68324856268</v>
+        <v>47098.91009791267</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D51">
-        <v>56131.47312333801</v>
+        <v>22837.13352827357</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>42966.56749743401</v>
+        <v>38969.70485907245</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>59642.55654568338</v>
+        <v>59913.97495590275</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54">
-        <v>39401.15763589634</v>
+        <v>50918.27772343913</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,10 +1799,10 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D55">
-        <v>63640.11315752748</v>
+        <v>14542.00676340132</v>
       </c>
       <c r="E55" t="s">
         <v>109</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D56">
-        <v>48352.99488563673</v>
+        <v>49615.34680008909</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>79564.26986300627</v>
+        <v>53252.29529999042</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,10 +1859,10 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>50107.53541516297</v>
+        <v>50037.61989513114</v>
       </c>
       <c r="E58" t="s">
         <v>108</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D59">
-        <v>17457.57106796881</v>
+        <v>36099.56898303452</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,10 +1899,10 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D60">
-        <v>67142.67362819159</v>
+        <v>62363.8930552703</v>
       </c>
       <c r="E60" t="s">
         <v>106</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61">
-        <v>76197.96599234198</v>
+        <v>67024.79717365149</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,10 +1939,10 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D62">
-        <v>40308.3197479216</v>
+        <v>37050.0931901061</v>
       </c>
       <c r="E62" t="s">
         <v>106</v>
@@ -1962,10 +1962,10 @@
         <v>52</v>
       </c>
       <c r="D63">
-        <v>48369.1938126762</v>
+        <v>52696.39276019883</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D64">
-        <v>49523.06129241889</v>
+        <v>37120.97512387839</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>59558.74181913552</v>
+        <v>55981.93710845093</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D66">
-        <v>50536.89739942407</v>
+        <v>71552.11119402916</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>58579.01791487412</v>
+        <v>49523.27789903295</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>28201.06871534792</v>
+        <v>52573.60740777698</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,10 +2079,10 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>37513.27136837137</v>
+        <v>41388.60151340326</v>
       </c>
       <c r="E69" t="s">
         <v>107</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D70">
-        <v>42299.47534638878</v>
+        <v>41961.92556456038</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>60234.17873119275</v>
+        <v>66035.9416490819</v>
       </c>
       <c r="E71" t="s">
         <v>109</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D72">
-        <v>64425.77043968798</v>
+        <v>62500.62224850905</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D73">
-        <v>47133.18634950001</v>
+        <v>61049.97242587633</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>72502.83658889563</v>
+        <v>56963.56794875109</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D75">
-        <v>77414.23802034171</v>
+        <v>42626.62345618035</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D76">
-        <v>30227.98713830839</v>
+        <v>37437.89585403456</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D77">
-        <v>73647.68629902646</v>
+        <v>63656.78329594505</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D78">
-        <v>39753.95520284471</v>
+        <v>39160.00697518846</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D79">
-        <v>56746.98828352222</v>
+        <v>36102.94659807289</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D80">
-        <v>59509.37898998509</v>
+        <v>38551.74346792622</v>
       </c>
       <c r="E80" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D81">
-        <v>38620.8455936178</v>
+        <v>34812.96921842709</v>
       </c>
       <c r="E81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>56348.19020406722</v>
+        <v>75394.76583782503</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D83">
-        <v>55699.95688298069</v>
+        <v>31433.09240464848</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D84">
-        <v>61356.23763172323</v>
+        <v>69491.93452737243</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D85">
-        <v>76430.19341789708</v>
+        <v>68837.43826288974</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D86">
-        <v>28898.6643942125</v>
+        <v>30825.81340218484</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D87">
-        <v>68920.98427160419</v>
+        <v>53542.07588904205</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D88">
-        <v>52774.74647079123</v>
+        <v>40701.37505408043</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D89">
-        <v>42945.21057082254</v>
+        <v>67835.80867606302</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D90">
-        <v>62786.55314054813</v>
+        <v>67321.1981507348</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D91">
-        <v>38195.29869664338</v>
+        <v>42880.25346022682</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,10 +2539,10 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D92">
-        <v>46993.0675683888</v>
+        <v>70169.51234727113</v>
       </c>
       <c r="E92" t="s">
         <v>108</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93">
-        <v>48803.84622066492</v>
+        <v>45238.48708125547</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D94">
-        <v>45292.34791400335</v>
+        <v>56701.74459565133</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,10 +2599,10 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D95">
-        <v>39974.47626384534</v>
+        <v>63192.40184626647</v>
       </c>
       <c r="E95" t="s">
         <v>107</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D96">
-        <v>54526.49345581784</v>
+        <v>50159.27668484943</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,10 +2639,10 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D97">
-        <v>51127.32590131826</v>
+        <v>84117.09239346041</v>
       </c>
       <c r="E97" t="s">
         <v>109</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D98">
-        <v>35850.22278816523</v>
+        <v>46061.3116610255</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D99">
-        <v>56390.72627271497</v>
+        <v>61588.76108533965</v>
       </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D100">
-        <v>51902.59501113115</v>
+        <v>54036.56501638683</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D101">
-        <v>58916.01886810295</v>
+        <v>70644.39787304836</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,13 +334,13 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>IT</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
   <si>
     <t>HR</t>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>63476.4011693819</v>
+        <v>44595.66753553718</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>60657.73347741071</v>
+        <v>20732.45811111215</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>71173.93292476283</v>
+        <v>44776.81456473421</v>
       </c>
       <c r="E4" t="s">
         <v>108</v>
@@ -799,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>72401.60783671177</v>
+        <v>58284.85855668724</v>
       </c>
       <c r="E5" t="s">
         <v>109</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>46108.48661915051</v>
+        <v>58103.7029575896</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>55480.09054995058</v>
+        <v>44656.28928957402</v>
       </c>
       <c r="E7" t="s">
         <v>107</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>65120.15869411224</v>
+        <v>51037.74844076515</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>58682.28886268384</v>
+        <v>25827.8955650243</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>42259.02277562863</v>
+        <v>44687.86081169118</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>46262.08320330756</v>
+        <v>64699.35996085347</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>69916.52413711358</v>
+        <v>46238.45704191852</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
@@ -962,10 +962,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>48946.35510056093</v>
+        <v>80328.43837129363</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>18400.496242824</v>
+        <v>52356.82813241272</v>
       </c>
       <c r="E14" t="s">
         <v>108</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>64102.74038070239</v>
+        <v>-2072.891816828047</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>52309.08251674708</v>
+        <v>35426.58029262489</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>55796.22061509985</v>
+        <v>60084.33972946703</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>62019.3059653185</v>
+        <v>40353.86460293135</v>
       </c>
       <c r="E18" t="s">
         <v>106</v>
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>59440.31014308149</v>
+        <v>51547.81322398117</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2">
         <v>43848</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>69631.68717032489</v>
+        <v>60823.62232637322</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>37480.56119456859</v>
+        <v>60828.03441185162</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>41616.09632968874</v>
+        <v>59718.50318763037</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,10 +1159,10 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>57239.54411736289</v>
+        <v>68497.09043392344</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>79331.45299673497</v>
+        <v>71243.82719954285</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>20837.61051842583</v>
+        <v>62926.03326395706</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>51232.62001662394</v>
+        <v>42092.03480103024</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>56724.73899607028</v>
+        <v>49925.13924599362</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>57376.62555958764</v>
+        <v>40703.44883529215</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,13 +1279,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>63424.430568752</v>
+        <v>26297.865269307</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2">
         <v>43858</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>56857.27875567708</v>
+        <v>30368.42908774397</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>47721.62705600441</v>
+        <v>54526.77370164434</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>28319.64348663684</v>
+        <v>39760.6047928789</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>70388.82639709365</v>
+        <v>58155.74312336482</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>22055.48114161167</v>
+        <v>29631.14384786824</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2">
         <v>43863</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>54178.86754608874</v>
+        <v>42256.2993238132</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>80941.95245239604</v>
+        <v>65415.76905053505</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>29769.73440187222</v>
+        <v>55847.35278685332</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2">
         <v>43866</v>
@@ -1459,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>44836.56030275881</v>
+        <v>35285.37244829022</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>54703.87735898634</v>
+        <v>47636.16117869427</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D40">
-        <v>57824.36709662789</v>
+        <v>49903.68348474527</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>71025.24039464995</v>
+        <v>61331.01212700194</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>56635.58303365922</v>
+        <v>51951.10469514974</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,10 +1559,10 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>24924.59353669511</v>
+        <v>34685.75775887476</v>
       </c>
       <c r="E43" t="s">
         <v>107</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>56439.90011246235</v>
+        <v>20122.999900321</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>71821.73558282062</v>
+        <v>48421.24483754064</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>58919.09226398209</v>
+        <v>50346.47771817715</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D47">
-        <v>61342.01155313586</v>
+        <v>45630.84663161824</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,10 +1659,10 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>67474.82804901214</v>
+        <v>43080.77517074972</v>
       </c>
       <c r="E48" t="s">
         <v>107</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>35608.90798764869</v>
+        <v>39628.10866858823</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,10 +1699,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D50">
-        <v>47098.91009791267</v>
+        <v>45872.37905473379</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>22837.13352827357</v>
+        <v>10148.9898482173</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>38969.70485907245</v>
+        <v>46956.86468668129</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>59913.97495590275</v>
+        <v>44010.38931291363</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>50918.27772343913</v>
+        <v>51854.53164630252</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>14542.00676340132</v>
+        <v>71900.0635920043</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>49615.34680008909</v>
+        <v>54075.23864914347</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>53252.29529999042</v>
+        <v>20702.68629103078</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D58">
-        <v>50037.61989513114</v>
+        <v>23703.77516621091</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>36099.56898303452</v>
+        <v>32052.57732743506</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>62363.8930552703</v>
+        <v>63252.34222221478</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>67024.79717365149</v>
+        <v>70171.87606231318</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,13 +1939,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D62">
-        <v>37050.0931901061</v>
+        <v>29206.4524473605</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D63">
-        <v>52696.39276019883</v>
+        <v>66996.23550628088</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>37120.97512387839</v>
+        <v>34193.68285352503</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>55981.93710845093</v>
+        <v>32209.0507368254</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D66">
-        <v>71552.11119402916</v>
+        <v>51711.49595020493</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D67">
-        <v>49523.27789903295</v>
+        <v>58990.71615595095</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D68">
-        <v>52573.60740777698</v>
+        <v>52481.85537518653</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D69">
-        <v>41388.60151340326</v>
+        <v>54071.70374472714</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D70">
-        <v>41961.92556456038</v>
+        <v>58371.077126773</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D71">
-        <v>66035.9416490819</v>
+        <v>36299.03189009185</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>62500.62224850905</v>
+        <v>51920.96792228817</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D73">
-        <v>61049.97242587633</v>
+        <v>34174.34347123341</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D74">
-        <v>56963.56794875109</v>
+        <v>30934.71957345471</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2">
         <v>43903</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D75">
-        <v>42626.62345618035</v>
+        <v>57129.1716740981</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D76">
-        <v>37437.89585403456</v>
+        <v>25605.14081840801</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D77">
-        <v>63656.78329594505</v>
+        <v>35086.87281682563</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>39160.00697518846</v>
+        <v>76928.31190862754</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,10 +2279,10 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>36102.94659807289</v>
+        <v>39454.58877689474</v>
       </c>
       <c r="E79" t="s">
         <v>106</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D80">
-        <v>38551.74346792622</v>
+        <v>36619.31333988981</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D81">
-        <v>34812.96921842709</v>
+        <v>66301.97961023789</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,10 +2339,10 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D82">
-        <v>75394.76583782503</v>
+        <v>60465.43913242897</v>
       </c>
       <c r="E82" t="s">
         <v>107</v>
@@ -2359,10 +2359,10 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D83">
-        <v>31433.09240464848</v>
+        <v>80173.31557894756</v>
       </c>
       <c r="E83" t="s">
         <v>108</v>
@@ -2379,10 +2379,10 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>69491.93452737243</v>
+        <v>65067.77346344825</v>
       </c>
       <c r="E84" t="s">
         <v>108</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D85">
-        <v>68837.43826288974</v>
+        <v>43546.00280834286</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86">
-        <v>30825.81340218484</v>
+        <v>42318.92291746577</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>53542.07588904205</v>
+        <v>25928.91512875208</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,10 +2459,10 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D88">
-        <v>40701.37505408043</v>
+        <v>51997.27279389951</v>
       </c>
       <c r="E88" t="s">
         <v>108</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>67835.80867606302</v>
+        <v>17155.18016254139</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D90">
-        <v>67321.1981507348</v>
+        <v>50711.41026681929</v>
       </c>
       <c r="E90" t="s">
         <v>108</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D91">
-        <v>42880.25346022682</v>
+        <v>40260.48808799414</v>
       </c>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D92">
-        <v>70169.51234727113</v>
+        <v>8637.160950518459</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D93">
-        <v>45238.48708125547</v>
+        <v>69559.7151600714</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D94">
-        <v>56701.74459565133</v>
+        <v>60494.48556665757</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D95">
-        <v>63192.40184626647</v>
+        <v>61679.12490491016</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D96">
-        <v>50159.27668484943</v>
+        <v>40164.65471517958</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D97">
-        <v>84117.09239346041</v>
+        <v>48928.95548541479</v>
       </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D98">
-        <v>46061.3116610255</v>
+        <v>45372.09803704978</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>61588.76108533965</v>
+        <v>44925.10064661285</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D100">
-        <v>54036.56501638683</v>
+        <v>35331.10714930953</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D101">
-        <v>70644.39787304836</v>
+        <v>50183.78090606163</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -334,16 +334,16 @@
     <t>Person_100</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Finance</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>44595.66753553718</v>
+        <v>32464.82154646506</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>20732.45811111215</v>
+        <v>40438.10075899833</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>44776.81456473421</v>
+        <v>55229.69305290418</v>
       </c>
       <c r="E4" t="s">
         <v>108</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>58284.85855668724</v>
+        <v>44194.05728741115</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>58103.7029575896</v>
+        <v>39034.05692931051</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>44656.28928957402</v>
+        <v>48421.66253748996</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>51037.74844076515</v>
+        <v>62212.79921597587</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>25827.8955650243</v>
+        <v>81752.01071286546</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>44687.86081169118</v>
+        <v>70786.37804876988</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>64699.35996085347</v>
+        <v>44443.78196910319</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>46238.45704191852</v>
+        <v>66349.75222349698</v>
       </c>
       <c r="E12" t="s">
         <v>109</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>80328.43837129363</v>
+        <v>44438.50484475472</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>52356.82813241272</v>
+        <v>47402.12930721269</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>-2072.891816828047</v>
+        <v>37596.14274035717</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2">
         <v>43844</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>35426.58029262489</v>
+        <v>36715.75873101456</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>60084.33972946703</v>
+        <v>52184.08760924795</v>
       </c>
       <c r="E17" t="s">
         <v>109</v>
@@ -1059,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>40353.86460293135</v>
+        <v>26214.40874756488</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="2">
         <v>43847</v>
@@ -1079,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>51547.81322398117</v>
+        <v>44472.98504419244</v>
       </c>
       <c r="E19" t="s">
         <v>109</v>
@@ -1099,10 +1099,10 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>60823.62232637322</v>
+        <v>33100.39730544255</v>
       </c>
       <c r="E20" t="s">
         <v>107</v>
@@ -1119,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>60828.03441185162</v>
+        <v>59491.85066706651</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="2">
         <v>43850</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>59718.50318763037</v>
+        <v>45996.69061162951</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>68497.09043392344</v>
+        <v>34463.79983231707</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>71243.82719954285</v>
+        <v>57718.37905922165</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,10 +1199,10 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>62926.03326395706</v>
+        <v>51063.79898805705</v>
       </c>
       <c r="E25" t="s">
         <v>108</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>42092.03480103024</v>
+        <v>39682.69805208032</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -1239,10 +1239,10 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>49925.13924599362</v>
+        <v>36409.65118776824</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
@@ -1259,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>40703.44883529215</v>
+        <v>52590.88279211868</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2">
         <v>43857</v>
@@ -1279,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>26297.865269307</v>
+        <v>43347.76286365061</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -1299,10 +1299,10 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>30368.42908774397</v>
+        <v>48704.89213165957</v>
       </c>
       <c r="E30" t="s">
         <v>109</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>54526.77370164434</v>
+        <v>48504.3190704037</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>39760.6047928789</v>
+        <v>35788.90778322481</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="2">
         <v>43861</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>58155.74312336482</v>
+        <v>46625.21869617123</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,10 +1379,10 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>29631.14384786824</v>
+        <v>32435.23812056898</v>
       </c>
       <c r="E34" t="s">
         <v>108</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35">
-        <v>42256.2993238132</v>
+        <v>38920.26257240577</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>65415.76905053505</v>
+        <v>75225.78623873723</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,10 +1439,10 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>55847.35278685332</v>
+        <v>29402.71266622711</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>35285.37244829022</v>
+        <v>54326.82507247456</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>47636.16117869427</v>
+        <v>44669.10804065968</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,13 +1499,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>49903.68348474527</v>
+        <v>92376.50455670536</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2">
         <v>43869</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
-        <v>61331.01212700194</v>
+        <v>44515.44395068243</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,10 +1539,10 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>51951.10469514974</v>
+        <v>52748.1841534985</v>
       </c>
       <c r="E42" t="s">
         <v>106</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D43">
-        <v>34685.75775887476</v>
+        <v>67586.73301241329</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,10 +1579,10 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>20122.999900321</v>
+        <v>73829.1360290611</v>
       </c>
       <c r="E44" t="s">
         <v>106</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>48421.24483754064</v>
+        <v>61663.44273111782</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>50346.47771817715</v>
+        <v>56830.84244428998</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>45630.84663161824</v>
+        <v>65367.48673600331</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48">
-        <v>43080.77517074972</v>
+        <v>72552.98287656243</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D49">
-        <v>39628.10866858823</v>
+        <v>36102.31027540405</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D50">
-        <v>45872.37905473379</v>
+        <v>26393.51027892351</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>10148.9898482173</v>
+        <v>57555.58658361278</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1739,13 +1739,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>46956.86468668129</v>
+        <v>31665.99297089205</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>44010.38931291363</v>
+        <v>27928.60883874703</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>51854.53164630252</v>
+        <v>53578.44201556427</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>71900.0635920043</v>
+        <v>56208.00389686042</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>54075.23864914347</v>
+        <v>59174.15639934957</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>20702.68629103078</v>
+        <v>63422.69798802626</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D58">
-        <v>23703.77516621091</v>
+        <v>60877.71568827633</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D59">
-        <v>32052.57732743506</v>
+        <v>64933.64844716993</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D60">
-        <v>63252.34222221478</v>
+        <v>44593.29333383049</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D61">
-        <v>70171.87606231318</v>
+        <v>40886.37021530201</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2">
         <v>43890</v>
@@ -1939,13 +1939,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D62">
-        <v>29206.4524473605</v>
+        <v>37951.39797035701</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,13 +1959,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D63">
-        <v>66996.23550628088</v>
+        <v>60731.84512389755</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2">
         <v>43892</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D64">
-        <v>34193.68285352503</v>
+        <v>23342.05536387102</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>32209.0507368254</v>
+        <v>32877.39039223795</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D66">
-        <v>51711.49595020493</v>
+        <v>57377.68082592425</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2039,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D67">
-        <v>58990.71615595095</v>
+        <v>32786.93894983386</v>
       </c>
       <c r="E67" t="s">
         <v>106</v>
@@ -2059,10 +2059,10 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D68">
-        <v>52481.85537518653</v>
+        <v>74081.26029291059</v>
       </c>
       <c r="E68" t="s">
         <v>106</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D69">
-        <v>54071.70374472714</v>
+        <v>56551.85945264346</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70">
-        <v>58371.077126773</v>
+        <v>67377.53924998785</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>36299.03189009185</v>
+        <v>43256.07395821757</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>51920.96792228817</v>
+        <v>49491.77372975994</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D73">
-        <v>34174.34347123341</v>
+        <v>47081.68218356795</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,10 +2179,10 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D74">
-        <v>30934.71957345471</v>
+        <v>62845.45273480398</v>
       </c>
       <c r="E74" t="s">
         <v>106</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D75">
-        <v>57129.1716740981</v>
+        <v>63115.28250815564</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D76">
-        <v>25605.14081840801</v>
+        <v>65980.06894920647</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <v>43905</v>
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D77">
-        <v>35086.87281682563</v>
+        <v>25986.13624387548</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2">
         <v>43906</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D78">
-        <v>76928.31190862754</v>
+        <v>36913.13924304927</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,13 +2279,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D79">
-        <v>39454.58877689474</v>
+        <v>71591.72050066954</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2">
         <v>43908</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D80">
-        <v>36619.31333988981</v>
+        <v>57323.69496630174</v>
       </c>
       <c r="E80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,13 +2319,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>66301.97961023789</v>
+        <v>84533.15667340044</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2">
         <v>43910</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D82">
-        <v>60465.43913242897</v>
+        <v>34778.4210699596</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>80173.31557894756</v>
+        <v>35154.29759324677</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D84">
-        <v>65067.77346344825</v>
+        <v>64964.41667492723</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D85">
-        <v>43546.00280834286</v>
+        <v>48137.83548060613</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D86">
-        <v>42318.92291746577</v>
+        <v>43554.19538632676</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,13 +2439,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D87">
-        <v>25928.91512875208</v>
+        <v>34012.29860151072</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2">
         <v>43916</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>51997.27279389951</v>
+        <v>56270.55412975517</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,13 +2479,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D89">
-        <v>17155.18016254139</v>
+        <v>45201.08926660059</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2">
         <v>43918</v>
@@ -2499,13 +2499,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D90">
-        <v>50711.41026681929</v>
+        <v>43001.65641368417</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2">
         <v>43919</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D91">
-        <v>40260.48808799414</v>
+        <v>71057.36664378911</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,10 +2539,10 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D92">
-        <v>8637.160950518459</v>
+        <v>63520.15443724807</v>
       </c>
       <c r="E92" t="s">
         <v>107</v>
@@ -2559,13 +2559,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D93">
-        <v>69559.7151600714</v>
+        <v>59530.81503917563</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2">
         <v>43922</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D94">
-        <v>60494.48556665757</v>
+        <v>38055.45176830069</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D95">
-        <v>61679.12490491016</v>
+        <v>78706.75410939603</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D96">
-        <v>40164.65471517958</v>
+        <v>51843.47953232728</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,13 +2639,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D97">
-        <v>48928.95548541479</v>
+        <v>58768.21113316176</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2">
         <v>43926</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D98">
-        <v>45372.09803704978</v>
+        <v>73677.81908274599</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2682,10 +2682,10 @@
         <v>20</v>
       </c>
       <c r="D99">
-        <v>44925.10064661285</v>
+        <v>69189.18124389982</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D100">
-        <v>35331.10714930953</v>
+        <v>53727.63578275584</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D101">
-        <v>50183.78090606163</v>
+        <v>53565.0835085514</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>

--- a/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
+++ b/Course 05/unit2-cleaning/examples/unit2-cleaning/examples/sample_data.xlsx
@@ -337,10 +337,10 @@
     <t>Sales</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>HR</t>
-  </si>
-  <si>
-    <t>IT</t>
   </si>
   <si>
     <t>Finance</t>
@@ -739,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>32464.82154646506</v>
+        <v>56089.89997089908</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>40438.10075899833</v>
+        <v>59315.30017015975</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
@@ -779,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>55229.69305290418</v>
+        <v>75446.42712047833</v>
       </c>
       <c r="E4" t="s">
         <v>108</v>
@@ -799,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>44194.05728741115</v>
+        <v>33042.70217339863</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2">
         <v>43834</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>39034.05692931051</v>
+        <v>29153.88654885201</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2">
         <v>43835</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>48421.66253748996</v>
+        <v>67176.00047937736</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2">
         <v>43836</v>
@@ -859,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>62212.79921597587</v>
+        <v>43595.34724767299</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2">
         <v>43837</v>
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>81752.01071286546</v>
+        <v>66146.67558966213</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2">
         <v>43838</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>70786.37804876988</v>
+        <v>74324.47590143896</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2">
         <v>43839</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>44443.78196910319</v>
+        <v>42787.0273739539</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2">
         <v>43840</v>
@@ -939,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>66349.75222349698</v>
+        <v>42483.65468187397</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2">
         <v>43841</v>
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>44438.50484475472</v>
+        <v>42754.83052392603</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2">
         <v>43842</v>
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>47402.12930721269</v>
+        <v>56135.31473979411</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2">
         <v>43843</v>
@@ -999,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>37596.14274035717</v>
+        <v>45792.82626010759</v>
       </c>
       <c r="E15" t="s">
         <v>109</v>
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>36715.75873101456</v>
+        <v>53520.07402106046</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2">
         <v>43845</v>
@@ -1039,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>52184.08760924795</v>
+        <v>56614.88606886748</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2">
         <v>43846</v>
@@ -1059,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>26214.40874756488</v>
+        <v>38360.89600333348</v>
       </c>
       <c r="E18" t="s">
         <v>107</v>
@@ -1079,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>44472.98504419244</v>
+        <v>43292.06645633859</v>
       </c>
       <c r="E19" t="s">
         <v>109</v>
@@ -1099,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>33100.39730544255</v>
+        <v>21372.25028330765</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="2">
         <v>43849</v>
@@ -1119,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>59491.85066706651</v>
+        <v>47284.48853251682</v>
       </c>
       <c r="E21" t="s">
         <v>107</v>
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>45996.69061162951</v>
+        <v>66016.64867384743</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2">
         <v>43851</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>34463.79983231707</v>
+        <v>43363.5205006687</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2">
         <v>43852</v>
@@ -1179,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>57718.37905922165</v>
+        <v>49385.35747632028</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2">
         <v>43853</v>
@@ -1199,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>51063.79898805705</v>
+        <v>52014.91705091414</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2">
         <v>43854</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>39682.69805208032</v>
+        <v>52072.93654103131</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -1239,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>36409.65118776824</v>
+        <v>44899.32604557896</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2">
         <v>43856</v>
@@ -1259,10 +1259,10 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>52590.88279211868</v>
+        <v>41925.56856869411</v>
       </c>
       <c r="E28" t="s">
         <v>107</v>
@@ -1279,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>43347.76286365061</v>
+        <v>33148.02471414252</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -1299,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>48704.89213165957</v>
+        <v>69004.13205568936</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2">
         <v>43859</v>
@@ -1319,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>48504.3190704037</v>
+        <v>47589.86621388248</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2">
         <v>43860</v>
@@ -1339,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>35788.90778322481</v>
+        <v>51007.76306931891</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>46625.21869617123</v>
+        <v>35795.48435074229</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2">
         <v>43862</v>
@@ -1379,10 +1379,10 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>32435.23812056898</v>
+        <v>60099.67103523768</v>
       </c>
       <c r="E34" t="s">
         <v>108</v>
@@ -1399,13 +1399,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>38920.26257240577</v>
+        <v>31099.28304661543</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="2">
         <v>43864</v>
@@ -1419,13 +1419,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>75225.78623873723</v>
+        <v>53337.54443932071</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2">
         <v>43865</v>
@@ -1439,10 +1439,10 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D37">
-        <v>29402.71266622711</v>
+        <v>72485.67847132163</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>54326.82507247456</v>
+        <v>53840.82135144519</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2">
         <v>43867</v>
@@ -1479,13 +1479,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D39">
-        <v>44669.10804065968</v>
+        <v>51002.84094198573</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2">
         <v>43868</v>
@@ -1499,10 +1499,10 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>92376.50455670536</v>
+        <v>62632.630632541</v>
       </c>
       <c r="E40" t="s">
         <v>107</v>
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>44515.44395068243</v>
+        <v>31492.18037579589</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2">
         <v>43870</v>
@@ -1539,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>52748.1841534985</v>
+        <v>60271.30963007258</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F42" s="2">
         <v>43871</v>
@@ -1559,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>67586.73301241329</v>
+        <v>65116.8787067412</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2">
         <v>43872</v>
@@ -1579,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>73829.1360290611</v>
+        <v>50762.64103410874</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2">
         <v>43873</v>
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D45">
-        <v>61663.44273111782</v>
+        <v>59034.13903453836</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2">
         <v>43874</v>
@@ -1619,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>56830.84244428998</v>
+        <v>49869.90617649144</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2">
         <v>43875</v>
@@ -1639,13 +1639,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D47">
-        <v>65367.48673600331</v>
+        <v>44469.95473863951</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2">
         <v>43876</v>
@@ -1659,13 +1659,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>72552.98287656243</v>
+        <v>65480.42108185683</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2">
         <v>43877</v>
@@ -1679,13 +1679,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>36102.31027540405</v>
+        <v>42150.87694349068</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2">
         <v>43878</v>
@@ -1699,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>26393.51027892351</v>
+        <v>44993.95241231128</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2">
         <v>43879</v>
@@ -1719,13 +1719,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>57555.58658361278</v>
+        <v>50645.26469803093</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2">
         <v>43880</v>
@@ -1742,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="D52">
-        <v>31665.99297089205</v>
+        <v>75253.1966768421</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2">
         <v>43881</v>
@@ -1759,13 +1759,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>27928.60883874703</v>
+        <v>63972.0057400063</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2">
         <v>43882</v>
@@ -1779,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D54">
-        <v>53578.44201556427</v>
+        <v>47703.14835137921</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F54" s="2">
         <v>43883</v>
@@ -1799,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>56208.00389686042</v>
+        <v>42836.53194222696</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2">
         <v>43884</v>
@@ -1819,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>59174.15639934957</v>
+        <v>37609.06639328555</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F56" s="2">
         <v>43885</v>
@@ -1839,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D57">
-        <v>63422.69798802626</v>
+        <v>40921.96491561393</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2">
         <v>43886</v>
@@ -1859,13 +1859,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D58">
-        <v>60877.71568827633</v>
+        <v>65161.20547138939</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2">
         <v>43887</v>
@@ -1879,13 +1879,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D59">
-        <v>64933.64844716993</v>
+        <v>56419.47448654567</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2">
         <v>43888</v>
@@ -1899,13 +1899,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D60">
-        <v>44593.29333383049</v>
+        <v>44206.61997196531</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2">
         <v>43889</v>
@@ -1919,10 +1919,10 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>40886.37021530201</v>
+        <v>50525.88535634429</v>
       </c>
       <c r="E61" t="s">
         <v>106</v>
@@ -1939,13 +1939,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D62">
-        <v>37951.39797035701</v>
+        <v>51007.46518186931</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F62" s="2">
         <v>43891</v>
@@ -1959,10 +1959,10 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D63">
-        <v>60731.84512389755</v>
+        <v>42072.18556584001</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -1979,13 +1979,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D64">
-        <v>23342.05536387102</v>
+        <v>56968.40741296739</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>32877.39039223795</v>
+        <v>66732.54857519314</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2">
         <v>43894</v>
@@ -2019,13 +2019,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>57377.68082592425</v>
+        <v>46783.08419520238</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2">
         <v>43895</v>
@@ -2039,13 +2039,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>32786.93894983386</v>
+        <v>53483.13270494114</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2">
         <v>43896</v>
@@ -2059,13 +2059,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D68">
-        <v>74081.26029291059</v>
+        <v>50880.98400430147</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2">
         <v>43897</v>
@@ -2079,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D69">
-        <v>56551.85945264346</v>
+        <v>50800.04067512452</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F69" s="2">
         <v>43898</v>
@@ -2099,13 +2099,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>67377.53924998785</v>
+        <v>54823.55973629568</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F70" s="2">
         <v>43899</v>
@@ -2119,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D71">
-        <v>43256.07395821757</v>
+        <v>53872.96464910442</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2">
         <v>43900</v>
@@ -2139,13 +2139,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>49491.77372975994</v>
+        <v>53697.19613648303</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2">
         <v>43901</v>
@@ -2159,13 +2159,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D73">
-        <v>47081.68218356795</v>
+        <v>19851.56117195248</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2">
         <v>43902</v>
@@ -2179,10 +2179,10 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74">
-        <v>62845.45273480398</v>
+        <v>49921.55108798832</v>
       </c>
       <c r="E74" t="s">
         <v>106</v>
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D75">
-        <v>63115.28250815564</v>
+        <v>35811.79708451334</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2">
         <v>43904</v>
@@ -2219,10 +2219,10 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>65980.06894920647</v>
+        <v>18138.818542718</v>
       </c>
       <c r="E76" t="s">
         <v>108</v>
@@ -2239,10 +2239,10 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D77">
-        <v>25986.13624387548</v>
+        <v>51999.7458951072</v>
       </c>
       <c r="E77" t="s">
         <v>106</v>
@@ -2259,13 +2259,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>36913.13924304927</v>
+        <v>65160.52980684392</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2">
         <v>43907</v>
@@ -2279,10 +2279,10 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>71591.72050066954</v>
+        <v>71114.40153049036</v>
       </c>
       <c r="E79" t="s">
         <v>107</v>
@@ -2299,13 +2299,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D80">
-        <v>57323.69496630174</v>
+        <v>62171.07148415394</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2">
         <v>43909</v>
@@ -2319,10 +2319,10 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>84533.15667340044</v>
+        <v>66544.94398321604</v>
       </c>
       <c r="E81" t="s">
         <v>106</v>
@@ -2339,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D82">
-        <v>34778.4210699596</v>
+        <v>42104.4481873238</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2">
         <v>43911</v>
@@ -2359,13 +2359,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D83">
-        <v>35154.29759324677</v>
+        <v>63288.56275684274</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2">
         <v>43912</v>
@@ -2379,13 +2379,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D84">
-        <v>64964.41667492723</v>
+        <v>38401.68109894227</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2">
         <v>43913</v>
@@ -2399,13 +2399,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>48137.83548060613</v>
+        <v>54583.52874210155</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2">
         <v>43914</v>
@@ -2419,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D86">
-        <v>43554.19538632676</v>
+        <v>28623.26394883109</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
         <v>43915</v>
@@ -2439,10 +2439,10 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D87">
-        <v>34012.29860151072</v>
+        <v>80647.79297065629</v>
       </c>
       <c r="E87" t="s">
         <v>107</v>
@@ -2459,13 +2459,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D88">
-        <v>56270.55412975517</v>
+        <v>44540.34689556464</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2">
         <v>43917</v>
@@ -2479,10 +2479,10 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D89">
-        <v>45201.08926660059</v>
+        <v>62059.58210121049</v>
       </c>
       <c r="E89" t="s">
         <v>109</v>
@@ -2499,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D90">
-        <v>43001.65641368417</v>
+        <v>57059.08239275186</v>
       </c>
       <c r="E90" t="s">
         <v>109</v>
@@ -2519,13 +2519,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D91">
-        <v>71057.36664378911</v>
+        <v>66910.7334735364</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2">
         <v>43920</v>
@@ -2539,13 +2539,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D92">
-        <v>63520.15443724807</v>
+        <v>13752.14574261353</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2">
         <v>43921</v>
@@ -2559,10 +2559,10 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D93">
-        <v>59530.81503917563</v>
+        <v>60799.46927488428</v>
       </c>
       <c r="E93" t="s">
         <v>107</v>
@@ -2579,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D94">
-        <v>38055.45176830069</v>
+        <v>39713.57159055508</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2">
         <v>43923</v>
@@ -2599,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D95">
-        <v>78706.75410939603</v>
+        <v>59695.56131197994</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2">
         <v>43924</v>
@@ -2619,13 +2619,13 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D96">
-        <v>51843.47953232728</v>
+        <v>36640.36336016111</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2">
         <v>43925</v>
@@ -2639,10 +2639,10 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D97">
-        <v>58768.21113316176</v>
+        <v>68360.85675651475</v>
       </c>
       <c r="E97" t="s">
         <v>109</v>
@@ -2659,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D98">
-        <v>73677.81908274599</v>
+        <v>69122.8636864572</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2">
         <v>43927</v>
@@ -2679,13 +2679,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D99">
-        <v>69189.18124389982</v>
+        <v>69013.65634383717</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2">
         <v>43928</v>
@@ -2699,13 +2699,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D100">
-        <v>53727.63578275584</v>
+        <v>40503.84221889156</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2">
         <v>43929</v>
@@ -2719,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D101">
-        <v>53565.0835085514</v>
+        <v>60834.30038121492</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2">
         <v>43930</v>
